--- a/入库日报表.xlsx
+++ b/入库日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15264" firstSheet="15" activeTab="21"/>
+    <workbookView windowWidth="30720" windowHeight="13740" firstSheet="17" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="浮空栈道1.7" sheetId="4" r:id="rId1"/>
@@ -29,20 +29,22 @@
     <sheet name="福州地铁1.20" sheetId="25" r:id="rId20"/>
     <sheet name="广东华丰1.21" sheetId="24" r:id="rId21"/>
     <sheet name="广东华丰1.22" sheetId="26" r:id="rId22"/>
-    <sheet name="模板 (8)" sheetId="28" r:id="rId23"/>
-    <sheet name="模板 (9)" sheetId="29" r:id="rId24"/>
-    <sheet name="模板 (10)" sheetId="30" r:id="rId25"/>
-    <sheet name="模板 (11)" sheetId="31" r:id="rId26"/>
-    <sheet name="模板 (7)" sheetId="27" r:id="rId27"/>
-    <sheet name="模板 (12)" sheetId="32" r:id="rId28"/>
-    <sheet name="模板 (13)" sheetId="33" r:id="rId29"/>
+    <sheet name="广东华丰1.24" sheetId="28" r:id="rId23"/>
+    <sheet name="广东华丰1.25" sheetId="29" r:id="rId24"/>
+    <sheet name="广东华丰1.26" sheetId="30" r:id="rId25"/>
+    <sheet name="广东华丰1.27" sheetId="34" r:id="rId26"/>
+    <sheet name="模板 (11)" sheetId="31" r:id="rId27"/>
+    <sheet name="模板 (3)" sheetId="35" r:id="rId28"/>
+    <sheet name="模板 (7)" sheetId="27" r:id="rId29"/>
+    <sheet name="模板 (12)" sheetId="32" r:id="rId30"/>
+    <sheet name="模板 (13)" sheetId="33" r:id="rId31"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="389">
   <si>
     <t>正建股份-钢结构生产车间成品构件入库日报表</t>
   </si>
@@ -1189,6 +1191,99 @@
   <si>
     <t>GL7B</t>
   </si>
+  <si>
+    <t>GZ1A</t>
+  </si>
+  <si>
+    <t>GZ1B</t>
+  </si>
+  <si>
+    <t>GZ1C</t>
+  </si>
+  <si>
+    <t>GZ1D</t>
+  </si>
+  <si>
+    <t>GZ1E</t>
+  </si>
+  <si>
+    <t>GZ5C</t>
+  </si>
+  <si>
+    <t>GZ5F</t>
+  </si>
+  <si>
+    <t>GZ5E</t>
+  </si>
+  <si>
+    <t>GZ5D</t>
+  </si>
+  <si>
+    <t>GZ5A</t>
+  </si>
+  <si>
+    <t>GZ5</t>
+  </si>
+  <si>
+    <t>GZ5B</t>
+  </si>
+  <si>
+    <t>GZ3B</t>
+  </si>
+  <si>
+    <t>GZ3C</t>
+  </si>
+  <si>
+    <t>GZ3D</t>
+  </si>
+  <si>
+    <t>GZ3E</t>
+  </si>
+  <si>
+    <t>DCL1</t>
+  </si>
+  <si>
+    <t>BH1180*360*250*10*16*10</t>
+  </si>
+  <si>
+    <t>DCL1A</t>
+  </si>
+  <si>
+    <t>XG1</t>
+  </si>
+  <si>
+    <t>Φ140*4</t>
+  </si>
+  <si>
+    <t>XG2</t>
+  </si>
+  <si>
+    <t>XG4</t>
+  </si>
+  <si>
+    <t>XG5</t>
+  </si>
+  <si>
+    <t>XG6</t>
+  </si>
+  <si>
+    <t>XG7</t>
+  </si>
+  <si>
+    <t>XG10</t>
+  </si>
+  <si>
+    <t>XG11</t>
+  </si>
+  <si>
+    <t>SC1</t>
+  </si>
+  <si>
+    <t>L90*90*6</t>
+  </si>
+  <si>
+    <t>SC3</t>
+  </si>
 </sst>
 </file>
 
@@ -1196,9 +1291,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -1284,22 +1379,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1314,8 +1411,52 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1338,103 +1479,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1448,17 +1501,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1471,8 +1523,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1480,15 +1540,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1497,6 +1556,13 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1511,14 +1577,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1541,19 +1636,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799798577837458"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,115 +1672,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1691,19 +1702,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,19 +1822,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399792474135563"/>
+        <fgColor theme="5" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1745,49 +1864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
+        <fgColor theme="8" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,19 +1876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799798577837458"/>
+        <fgColor theme="9" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,25 +1888,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799829096346934"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,7 +1918,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1871,19 +1942,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799798577837458"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,13 +2002,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.799768059327982"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799768059327982"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1949,37 +2044,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799768059327982"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399792474135563"/>
+        <fgColor theme="6" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799768059327982"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,25 +2098,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399914548173467"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2033,19 +2134,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399853511154515"/>
+        <fgColor theme="7" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399853511154515"/>
+        <fgColor theme="4" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="8" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2057,25 +2182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.399761955626087"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2087,31 +2194,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399761955626087"/>
+        <fgColor theme="8" tint="0.399761955626087"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399792474135563"/>
+        <fgColor theme="7" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2123,19 +2218,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="8" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399761955626087"/>
+        <fgColor theme="5" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399792474135563"/>
+        <fgColor theme="5" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,7 +2253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2210,10 +2305,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2223,24 +2318,20 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2260,22 +2351,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2298,8 +2408,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399792474135563"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2313,17 +2423,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2332,43 +2438,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399822992645039"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399914548173467"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399945066682943"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.399761955626087"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2386,7 +2456,25 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399761955626087"/>
+        <color theme="4" tint="0.399822992645039"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399792474135563"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2399,6 +2487,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399914548173467"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="425">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2407,1277 +2513,1277 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3753,19 +3859,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3777,16 +3889,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3799,14 +3911,14 @@
   <cellStyles count="425">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="链接单元格 3 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
-    <cellStyle name="输出 3" xfId="5"/>
-    <cellStyle name="输入" xfId="6" builtinId="20"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="7"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="9"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="3"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="5"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="输出 3" xfId="7"/>
+    <cellStyle name="链接单元格 3 2" xfId="8"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="9"/>
     <cellStyle name="千位分隔[0]" xfId="10" builtinId="6"/>
     <cellStyle name="60% - 强调文字颜色 1 3 5" xfId="11"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
@@ -3820,19 +3932,19 @@
     <cellStyle name="百分比" xfId="20" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="23"/>
-    <cellStyle name="注释" xfId="24" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="26"/>
-    <cellStyle name="标题 4" xfId="27" builtinId="19"/>
-    <cellStyle name="解释性文本 2 2" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="29"/>
-    <cellStyle name="警告文本" xfId="30" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="31"/>
+    <cellStyle name="注释" xfId="23" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="25"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="26"/>
+    <cellStyle name="警告文本" xfId="27" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="28"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="解释性文本 2 2" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="31"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 1 2 3" xfId="33"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="33"/>
     <cellStyle name="常规 5 2" xfId="34"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="35"/>
+    <cellStyle name="强调文字颜色 1 2 3" xfId="35"/>
     <cellStyle name="标题" xfId="36" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="37" builtinId="53"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="38"/>
@@ -3846,28 +3958,28 @@
     <cellStyle name="输出" xfId="46" builtinId="21"/>
     <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="47"/>
     <cellStyle name="计算" xfId="48" builtinId="22"/>
-    <cellStyle name="计算 3 2" xfId="49"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="49"/>
+    <cellStyle name="计算 3 2" xfId="50"/>
     <cellStyle name="检查单元格" xfId="51" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="52" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="53" builtinId="33"/>
     <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="54"/>
     <cellStyle name="链接单元格" xfId="55" builtinId="24"/>
-    <cellStyle name="强调文字颜色 3 2 4" xfId="56"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="57"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="56"/>
+    <cellStyle name="强调文字颜色 3 2 4" xfId="57"/>
     <cellStyle name="汇总" xfId="58" builtinId="25"/>
     <cellStyle name="差 3 4" xfId="59"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="输出 3 3" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="62"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="61"/>
+    <cellStyle name="输出 3 3" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="检查单元格 3 2" xfId="65"/>
     <cellStyle name="强调文字颜色 1" xfId="66" builtinId="29"/>
     <cellStyle name="链接单元格 3" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="68" builtinId="30"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="69"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="70"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="69"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="70"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="71" builtinId="31"/>
     <cellStyle name="输出 2" xfId="72"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="73" builtinId="34"/>
@@ -3882,83 +3994,83 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="85"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="86"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="85"/>
+    <cellStyle name="适中 2" xfId="86"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="87" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="88" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 1 2 7" xfId="89"/>
     <cellStyle name="20% - 强调文字颜色 1 3 7" xfId="90"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="92"/>
-    <cellStyle name="链接单元格 3 3" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="94"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="91"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="92"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="93"/>
+    <cellStyle name="链接单元格 3 3" xfId="94"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="95"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="96"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="97"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="97"/>
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
     <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="99"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="100"/>
-    <cellStyle name="计算 2 2" xfId="101"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="101"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="103"/>
-    <cellStyle name="计算 2 3" xfId="104"/>
+    <cellStyle name="计算 2 2" xfId="103"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="104"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="106"/>
+    <cellStyle name="计算 2 3" xfId="106"/>
     <cellStyle name="20% - 强调文字颜色 1 3 6" xfId="107"/>
-    <cellStyle name="输出 2 2" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="108"/>
     <cellStyle name="20% - 强调文字颜色 3 2 7" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="110"/>
+    <cellStyle name="输出 2 2" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="114"/>
     <cellStyle name="20% - 强调文字颜色 2 2 7" xfId="115"/>
-    <cellStyle name="输出 2 3" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="116"/>
+    <cellStyle name="输出 2 3" xfId="117"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="119"/>
-    <cellStyle name="常规 2 2 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="120"/>
+    <cellStyle name="常规 2 2 2" xfId="121"/>
     <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="122"/>
     <cellStyle name="20% - 强调文字颜色 2 3 7" xfId="123"/>
-    <cellStyle name="输出 3 2" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 3 3 7" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="126"/>
+    <cellStyle name="输出 3 2" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="131"/>
-    <cellStyle name="适中 3" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="133"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="132"/>
+    <cellStyle name="适中 3" xfId="133"/>
     <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="134"/>
     <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="135"/>
     <cellStyle name="20% - 强调文字颜色 3 3 6" xfId="136"/>
-    <cellStyle name="常规 3" xfId="137"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="137"/>
     <cellStyle name="60% - 强调文字颜色 1 2 7" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="139"/>
-    <cellStyle name="常规 3 2" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="141"/>
+    <cellStyle name="常规 3" xfId="139"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="140"/>
+    <cellStyle name="常规 3 2" xfId="141"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="142"/>
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="143"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="145"/>
-    <cellStyle name="强调文字颜色 5 3" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="144"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="146"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 4 2 7" xfId="148"/>
-    <cellStyle name="常规 4" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="150"/>
-    <cellStyle name="常规 4 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="149"/>
+    <cellStyle name="常规 4" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="151"/>
+    <cellStyle name="常规 4 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="153"/>
     <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="154"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="156"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="158"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="155"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="157"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 3 7" xfId="159"/>
-    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="160"/>
+    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="161"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="164"/>
@@ -3967,177 +4079,177 @@
     <cellStyle name="20% - 强调文字颜色 5 2 7" xfId="167"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="169"/>
-    <cellStyle name="解释性文本 2 3" xfId="170"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="170"/>
     <cellStyle name="标题 5" xfId="171"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="172"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="174"/>
+    <cellStyle name="解释性文本 2 3" xfId="172"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="173"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="175"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 6 2 7" xfId="180"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="182"/>
-    <cellStyle name="好 2 5" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="184"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="181"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="182"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="183"/>
+    <cellStyle name="好 2 5" xfId="184"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="185"/>
-    <cellStyle name="注释 2 2" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="187"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="186"/>
+    <cellStyle name="注释 2 2" xfId="187"/>
     <cellStyle name="20% - 强调文字颜色 6 3 6" xfId="188"/>
     <cellStyle name="20% - 强调文字颜色 6 3 7" xfId="189"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="190"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="191"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="192"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="191"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="192"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="193"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="195"/>
-    <cellStyle name="解释性文本 3 3" xfId="196"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="194"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="195"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="196"/>
     <cellStyle name="60% - 强调文字颜色 3 2 7" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="198"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="200"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
+    <cellStyle name="解释性文本 3 3" xfId="198"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="199"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="200"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="201"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="202"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="203"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="204"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="205"/>
-    <cellStyle name="检查单元格 2" xfId="206"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="204"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="206"/>
     <cellStyle name="60% - 强调文字颜色 5 2 7" xfId="207"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="208"/>
-    <cellStyle name="检查单元格 3" xfId="209"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="210"/>
-    <cellStyle name="计算 3 3" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="212"/>
-    <cellStyle name="好 2 3" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="214"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="215"/>
+    <cellStyle name="检查单元格 2" xfId="208"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="209"/>
+    <cellStyle name="检查单元格 3" xfId="210"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="211"/>
+    <cellStyle name="计算 3 3" xfId="212"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="213"/>
+    <cellStyle name="好 2 3" xfId="214"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
     <cellStyle name="60% - 强调文字颜色 4 3" xfId="216"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="217"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="217"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="好 2 4" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="220"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="219"/>
+    <cellStyle name="好 2 4" xfId="220"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="221"/>
     <cellStyle name="60% - 强调文字颜色 5 3" xfId="222"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="223"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="224"/>
-    <cellStyle name="适中 2 2" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="225"/>
     <cellStyle name="好 3 3" xfId="226"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="227"/>
+    <cellStyle name="适中 2 2" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="229"/>
-    <cellStyle name="适中 2 3" xfId="230"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="231"/>
-    <cellStyle name="好 3 4" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="233"/>
-    <cellStyle name="解释性文本 3" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="230"/>
+    <cellStyle name="好 3 4" xfId="231"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="232"/>
+    <cellStyle name="适中 2 3" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="234"/>
+    <cellStyle name="解释性文本 3" xfId="235"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="236"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="237"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="238"/>
     <cellStyle name="60% - 强调文字颜色 1 2 3" xfId="239"/>
     <cellStyle name="60% - 强调文字颜色 1 2 4" xfId="240"/>
     <cellStyle name="60% - 强调文字颜色 1 2 5" xfId="241"/>
-    <cellStyle name="常规 2" xfId="242"/>
-    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="243"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="242"/>
+    <cellStyle name="常规 2" xfId="243"/>
     <cellStyle name="60% - 强调文字颜色 1 3" xfId="244"/>
     <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="245"/>
     <cellStyle name="60% - 强调文字颜色 1 3 3" xfId="246"/>
     <cellStyle name="60% - 强调文字颜色 1 3 4" xfId="247"/>
     <cellStyle name="60% - 强调文字颜色 1 3 6" xfId="248"/>
-    <cellStyle name="常规 5" xfId="249"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="250"/>
-    <cellStyle name="强调文字颜色 1 2 4" xfId="251"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="252"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="249"/>
+    <cellStyle name="常规 5" xfId="250"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="251"/>
+    <cellStyle name="强调文字颜色 1 2 4" xfId="252"/>
     <cellStyle name="60% - 强调文字颜色 2 2 4" xfId="253"/>
     <cellStyle name="60% - 强调文字颜色 2 2 5" xfId="254"/>
     <cellStyle name="60% - 强调文字颜色 2 2 6" xfId="255"/>
-    <cellStyle name="注释 2" xfId="256"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="256"/>
     <cellStyle name="强调文字颜色 1 3 3" xfId="257"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="258"/>
-    <cellStyle name="注释 3" xfId="259"/>
+    <cellStyle name="注释 2" xfId="258"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="259"/>
     <cellStyle name="强调文字颜色 1 3 4" xfId="260"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="261"/>
+    <cellStyle name="注释 3" xfId="261"/>
     <cellStyle name="60% - 强调文字颜色 2 3 4" xfId="262"/>
     <cellStyle name="60% - 强调文字颜色 2 3 6" xfId="263"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="264"/>
-    <cellStyle name="强调文字颜色 2 2 3" xfId="265"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="266"/>
-    <cellStyle name="强调文字颜色 2 2 4" xfId="267"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="268"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="265"/>
+    <cellStyle name="强调文字颜色 2 2 3" xfId="266"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="267"/>
+    <cellStyle name="强调文字颜色 2 2 4" xfId="268"/>
     <cellStyle name="60% - 强调文字颜色 3 2 4" xfId="269"/>
     <cellStyle name="60% - 强调文字颜色 3 2 5" xfId="270"/>
-    <cellStyle name="解释性文本 3 2" xfId="271"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="272"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="271"/>
+    <cellStyle name="解释性文本 3 2" xfId="272"/>
     <cellStyle name="60% - 强调文字颜色 3 3" xfId="273"/>
-    <cellStyle name="强调文字颜色 2 3 3" xfId="274"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="275"/>
-    <cellStyle name="强调文字颜色 2 3 4" xfId="276"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="277"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="274"/>
+    <cellStyle name="强调文字颜色 2 3 3" xfId="275"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="276"/>
+    <cellStyle name="强调文字颜色 2 3 4" xfId="277"/>
     <cellStyle name="60% - 强调文字颜色 3 3 4" xfId="278"/>
     <cellStyle name="60% - 强调文字颜色 3 3 5" xfId="279"/>
     <cellStyle name="60% - 强调文字颜色 3 3 6" xfId="280"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="281"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="282"/>
-    <cellStyle name="适中 2 4" xfId="283"/>
-    <cellStyle name="强调文字颜色 3 2 3" xfId="284"/>
-    <cellStyle name="好 3 5" xfId="285"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="286"/>
-    <cellStyle name="注释 3 2" xfId="287"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="288"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="281"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="282"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="283"/>
+    <cellStyle name="好 3 5" xfId="284"/>
+    <cellStyle name="强调文字颜色 3 2 3" xfId="285"/>
+    <cellStyle name="适中 2 4" xfId="286"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="287"/>
+    <cellStyle name="注释 3 2" xfId="288"/>
     <cellStyle name="60% - 强调文字颜色 4 2 5" xfId="289"/>
     <cellStyle name="60% - 强调文字颜色 4 2 6" xfId="290"/>
-    <cellStyle name="适中 3 4" xfId="291"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="291"/>
     <cellStyle name="强调文字颜色 3 3 3" xfId="292"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="293"/>
-    <cellStyle name="强调文字颜色 3 3 4" xfId="294"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="295"/>
+    <cellStyle name="适中 3 4" xfId="293"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="294"/>
+    <cellStyle name="强调文字颜色 3 3 4" xfId="295"/>
     <cellStyle name="60% - 强调文字颜色 4 3 4" xfId="296"/>
     <cellStyle name="60% - 强调文字颜色 4 3 5" xfId="297"/>
     <cellStyle name="60% - 强调文字颜色 4 3 6" xfId="298"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="299"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="300"/>
-    <cellStyle name="强调文字颜色 4 2 3" xfId="301"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="299"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="300"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="301"/>
     <cellStyle name="标题 3 2 6" xfId="302"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="303"/>
-    <cellStyle name="强调文字颜色 4 2 4" xfId="304"/>
+    <cellStyle name="强调文字颜色 4 2 3" xfId="303"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="304"/>
     <cellStyle name="标题 3 2 7" xfId="305"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="306"/>
+    <cellStyle name="强调文字颜色 4 2 4" xfId="306"/>
     <cellStyle name="60% - 强调文字颜色 5 2 4" xfId="307"/>
-    <cellStyle name="标题 4 2" xfId="308"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="309"/>
-    <cellStyle name="汇总 2 2" xfId="310"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="308"/>
+    <cellStyle name="标题 4 2" xfId="309"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="310"/>
     <cellStyle name="标题 4 3" xfId="311"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="312"/>
-    <cellStyle name="强调文字颜色 4 3 3" xfId="313"/>
+    <cellStyle name="汇总 2 2" xfId="312"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="313"/>
     <cellStyle name="标题 3 3 6" xfId="314"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="315"/>
-    <cellStyle name="强调文字颜色 4 3 4" xfId="316"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="317"/>
-    <cellStyle name="标题 3 3 7" xfId="318"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="319"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="320"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="321"/>
-    <cellStyle name="标题 5 2" xfId="322"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="323"/>
-    <cellStyle name="汇总 3 2" xfId="324"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="325"/>
+    <cellStyle name="强调文字颜色 4 3 3" xfId="315"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="316"/>
+    <cellStyle name="标题 3 3 7" xfId="317"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="318"/>
+    <cellStyle name="强调文字颜色 4 3 4" xfId="319"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="320"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="321"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="322"/>
+    <cellStyle name="标题 5 2" xfId="323"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="324"/>
+    <cellStyle name="汇总 3 2" xfId="325"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="326"/>
-    <cellStyle name="强调文字颜色 5 2 3" xfId="327"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="328"/>
-    <cellStyle name="强调文字颜色 5 2 4" xfId="329"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="330"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="327"/>
+    <cellStyle name="强调文字颜色 5 2 3" xfId="328"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="329"/>
+    <cellStyle name="强调文字颜色 5 2 4" xfId="330"/>
     <cellStyle name="60% - 强调文字颜色 6 3" xfId="331"/>
-    <cellStyle name="强调文字颜色 5 3 4" xfId="332"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="333"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="332"/>
+    <cellStyle name="强调文字颜色 5 3 4" xfId="333"/>
     <cellStyle name="60% - 强调文字颜色 6 3 4" xfId="334"/>
     <cellStyle name="60% - 强调文字颜色 6 3 5" xfId="335"/>
     <cellStyle name="标题 1 2" xfId="336"/>
     <cellStyle name="标题 1 2 2" xfId="337"/>
     <cellStyle name="标题 1 3" xfId="338"/>
-    <cellStyle name="汇总 3" xfId="339"/>
-    <cellStyle name="标题 1 3 2" xfId="340"/>
+    <cellStyle name="标题 1 3 2" xfId="339"/>
+    <cellStyle name="汇总 3" xfId="340"/>
     <cellStyle name="标题 2 2" xfId="341"/>
     <cellStyle name="标题 2 2 2" xfId="342"/>
     <cellStyle name="标题 2 3" xfId="343"/>
@@ -4146,18 +4258,18 @@
     <cellStyle name="标题 3 2 2" xfId="346"/>
     <cellStyle name="标题 3 2 3" xfId="347"/>
     <cellStyle name="标题 3 2 4" xfId="348"/>
-    <cellStyle name="强调文字颜色 4 2 2" xfId="349"/>
-    <cellStyle name="标题 3 2 5" xfId="350"/>
+    <cellStyle name="标题 3 2 5" xfId="349"/>
+    <cellStyle name="强调文字颜色 4 2 2" xfId="350"/>
     <cellStyle name="标题 3 3" xfId="351"/>
     <cellStyle name="标题 3 3 2" xfId="352"/>
     <cellStyle name="标题 3 3 3" xfId="353"/>
     <cellStyle name="标题 3 3 4" xfId="354"/>
-    <cellStyle name="强调文字颜色 4 3 2" xfId="355"/>
-    <cellStyle name="标题 3 3 5" xfId="356"/>
+    <cellStyle name="标题 3 3 5" xfId="355"/>
+    <cellStyle name="强调文字颜色 4 3 2" xfId="356"/>
     <cellStyle name="标题 4 2 2" xfId="357"/>
     <cellStyle name="标题 4 3 2" xfId="358"/>
-    <cellStyle name="解释性文本 2 4" xfId="359"/>
-    <cellStyle name="标题 6" xfId="360"/>
+    <cellStyle name="标题 6" xfId="359"/>
+    <cellStyle name="解释性文本 2 4" xfId="360"/>
     <cellStyle name="标题 6 2" xfId="361"/>
     <cellStyle name="差 2" xfId="362"/>
     <cellStyle name="差 2 2" xfId="363"/>
@@ -4169,11 +4281,11 @@
     <cellStyle name="差 3 3" xfId="369"/>
     <cellStyle name="差 3 5" xfId="370"/>
     <cellStyle name="常规 2 2" xfId="371"/>
-    <cellStyle name="输入 3 2" xfId="372"/>
-    <cellStyle name="常规 2 3" xfId="373"/>
+    <cellStyle name="常规 2 3" xfId="372"/>
+    <cellStyle name="输入 3 2" xfId="373"/>
     <cellStyle name="常规 2 3 2" xfId="374"/>
-    <cellStyle name="输入 3 3" xfId="375"/>
-    <cellStyle name="常规 2 4" xfId="376"/>
+    <cellStyle name="常规 2 4" xfId="375"/>
+    <cellStyle name="输入 3 3" xfId="376"/>
     <cellStyle name="常规 7" xfId="377"/>
     <cellStyle name="好 2" xfId="378"/>
     <cellStyle name="好 2 2" xfId="379"/>
@@ -4199,16 +4311,16 @@
     <cellStyle name="强调文字颜色 2 2" xfId="399"/>
     <cellStyle name="强调文字颜色 2 2 2" xfId="400"/>
     <cellStyle name="强调文字颜色 2 3" xfId="401"/>
-    <cellStyle name="输入 2 4" xfId="402"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="403"/>
-    <cellStyle name="输入 2 5" xfId="404"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="405"/>
-    <cellStyle name="适中 3 3" xfId="406"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="407"/>
-    <cellStyle name="输入 3 4" xfId="408"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="409"/>
-    <cellStyle name="输入 3 5" xfId="410"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="411"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="402"/>
+    <cellStyle name="输入 2 4" xfId="403"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="404"/>
+    <cellStyle name="输入 2 5" xfId="405"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="406"/>
+    <cellStyle name="适中 3 3" xfId="407"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="408"/>
+    <cellStyle name="输入 3 4" xfId="409"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="410"/>
+    <cellStyle name="输入 3 5" xfId="411"/>
     <cellStyle name="强调文字颜色 5 2 2" xfId="412"/>
     <cellStyle name="强调文字颜色 5 3 2" xfId="413"/>
     <cellStyle name="强调文字颜色 6 2 2" xfId="414"/>
@@ -4534,15 +4646,15 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -5098,15 +5210,15 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -6252,15 +6364,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -6331,7 +6443,7 @@
       <c r="C5" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="33">
         <v>1</v>
       </c>
       <c r="E5" s="17">
@@ -6353,7 +6465,7 @@
       <c r="C6" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="33">
         <v>9</v>
       </c>
       <c r="E6" s="17">
@@ -6375,7 +6487,7 @@
       <c r="C7" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="33">
         <v>1</v>
       </c>
       <c r="E7" s="17">
@@ -6397,7 +6509,7 @@
       <c r="C8" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="33">
         <v>1</v>
       </c>
       <c r="E8" s="17">
@@ -6419,7 +6531,7 @@
       <c r="C9" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="33">
         <v>4</v>
       </c>
       <c r="E9" s="17">
@@ -6441,7 +6553,7 @@
       <c r="C10" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="33">
         <v>16</v>
       </c>
       <c r="E10" s="17">
@@ -6463,7 +6575,7 @@
       <c r="C11" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="33">
         <v>2</v>
       </c>
       <c r="E11" s="17">
@@ -6485,7 +6597,7 @@
       <c r="C12" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="33">
         <v>8</v>
       </c>
       <c r="E12" s="17">
@@ -6735,15 +6847,15 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -6808,7 +6920,7 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>233</v>
       </c>
       <c r="C5" s="17"/>
@@ -6828,7 +6940,7 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>234</v>
       </c>
       <c r="C6" s="17"/>
@@ -6848,7 +6960,7 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>131</v>
       </c>
       <c r="C7" s="17"/>
@@ -6868,7 +6980,7 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>235</v>
       </c>
       <c r="C8" s="17"/>
@@ -6888,7 +7000,7 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="29" t="s">
         <v>236</v>
       </c>
       <c r="C9" s="17"/>
@@ -6908,7 +7020,7 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="29" t="s">
         <v>237</v>
       </c>
       <c r="C10" s="17"/>
@@ -6928,7 +7040,7 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="29" t="s">
         <v>238</v>
       </c>
       <c r="C11" s="17"/>
@@ -6948,7 +7060,7 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="29" t="s">
         <v>239</v>
       </c>
       <c r="C12" s="17"/>
@@ -6968,7 +7080,7 @@
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="29" t="s">
         <v>240</v>
       </c>
       <c r="C13" s="17"/>
@@ -6988,7 +7100,7 @@
       <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>241</v>
       </c>
       <c r="C14" s="17"/>
@@ -7008,7 +7120,7 @@
       <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="29" t="s">
         <v>242</v>
       </c>
       <c r="C15" s="17"/>
@@ -7028,7 +7140,7 @@
       <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="29" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="17"/>
@@ -7048,7 +7160,7 @@
       <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="29" t="s">
         <v>244</v>
       </c>
       <c r="C17" s="17"/>
@@ -7068,7 +7180,7 @@
       <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C18" s="17"/>
@@ -7088,7 +7200,7 @@
       <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="29" t="s">
         <v>246</v>
       </c>
       <c r="C19" s="17"/>
@@ -7108,7 +7220,7 @@
       <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="29" t="s">
         <v>247</v>
       </c>
       <c r="C20" s="17"/>
@@ -7128,7 +7240,7 @@
       <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="29" t="s">
         <v>248</v>
       </c>
       <c r="C21" s="17"/>
@@ -7148,7 +7260,7 @@
       <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="29" t="s">
         <v>249</v>
       </c>
       <c r="C22" s="17"/>
@@ -7168,7 +7280,7 @@
       <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="29" t="s">
         <v>250</v>
       </c>
       <c r="C23" s="17"/>
@@ -7301,15 +7413,15 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -7508,7 +7620,7 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="31"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="11"/>
@@ -7519,7 +7631,7 @@
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="31"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="11"/>
@@ -7762,15 +7874,15 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -8410,15 +8522,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -8489,7 +8601,7 @@
       <c r="C5" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="32">
         <v>5</v>
       </c>
       <c r="E5" s="15">
@@ -8511,7 +8623,7 @@
       <c r="C6" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="32" t="s">
         <v>284</v>
       </c>
       <c r="E6" s="15">
@@ -8533,7 +8645,7 @@
       <c r="C7" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="32">
         <v>3</v>
       </c>
       <c r="E7" s="15">
@@ -8555,7 +8667,7 @@
       <c r="C8" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="32" t="s">
         <v>287</v>
       </c>
       <c r="E8" s="15">
@@ -8577,7 +8689,7 @@
       <c r="C9" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="32">
         <v>1</v>
       </c>
       <c r="E9" s="15">
@@ -8860,15 +8972,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -9395,15 +9507,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -9871,15 +9983,15 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -9944,7 +10056,7 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>306</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -9966,7 +10078,7 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>307</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -9988,7 +10100,7 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>308</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -10010,7 +10122,7 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>309</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -10032,7 +10144,7 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="29" t="s">
         <v>310</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -10054,7 +10166,7 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="29" t="s">
         <v>311</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -10076,7 +10188,7 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="29" t="s">
         <v>312</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -10098,7 +10210,7 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="29" t="s">
         <v>313</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -10120,7 +10232,7 @@
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="29" t="s">
         <v>314</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -10142,7 +10254,7 @@
       <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>315</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -10164,7 +10276,7 @@
       <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="29" t="s">
         <v>316</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -10186,7 +10298,7 @@
       <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="29" t="s">
         <v>317</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -10208,7 +10320,7 @@
       <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="29" t="s">
         <v>318</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -10230,7 +10342,7 @@
       <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="29" t="s">
         <v>319</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -10252,7 +10364,7 @@
       <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="29" t="s">
         <v>320</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -10274,7 +10386,7 @@
       <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="29" t="s">
         <v>321</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -10296,7 +10408,7 @@
       <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="29" t="s">
         <v>322</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -10318,7 +10430,7 @@
       <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="29" t="s">
         <v>323</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -10340,7 +10452,7 @@
       <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="29" t="s">
         <v>324</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -10362,7 +10474,7 @@
       <c r="A24" s="11">
         <v>20</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="29" t="s">
         <v>325</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -10384,7 +10496,7 @@
       <c r="A25" s="11">
         <v>21</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="29" t="s">
         <v>326</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -10406,7 +10518,7 @@
       <c r="A26" s="11">
         <v>22</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="29" t="s">
         <v>327</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -10428,7 +10540,7 @@
       <c r="A27" s="11">
         <v>23</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="29" t="s">
         <v>328</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -10450,7 +10562,7 @@
       <c r="A28" s="11">
         <v>24</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="29" t="s">
         <v>329</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -10472,7 +10584,7 @@
       <c r="A29" s="11">
         <v>25</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>330</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -10494,7 +10606,7 @@
       <c r="A30" s="11">
         <v>26</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="29" t="s">
         <v>212</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -10516,7 +10628,7 @@
       <c r="A31" s="11">
         <v>27</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="29" t="s">
         <v>293</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -10538,7 +10650,7 @@
       <c r="A32" s="11">
         <v>28</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="29" t="s">
         <v>290</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -10560,7 +10672,7 @@
       <c r="A33" s="11">
         <v>29</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="29" t="s">
         <v>289</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -10582,7 +10694,7 @@
       <c r="A34" s="11">
         <v>30</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="29" t="s">
         <v>294</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -10604,7 +10716,7 @@
       <c r="A35" s="11">
         <v>31</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="29" t="s">
         <v>295</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -10626,7 +10738,7 @@
       <c r="A36" s="11">
         <v>32</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="29" t="s">
         <v>291</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -10648,7 +10760,7 @@
       <c r="A37" s="11">
         <v>33</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="29" t="s">
         <v>292</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -10670,7 +10782,7 @@
       <c r="A38" s="11">
         <v>34</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="29" t="s">
         <v>331</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -10692,7 +10804,7 @@
       <c r="A39" s="11">
         <v>35</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="29" t="s">
         <v>332</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -10761,15 +10873,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -10834,16 +10946,16 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="31">
         <v>3</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="31">
         <v>7050</v>
       </c>
       <c r="F5" s="14"/>
@@ -10853,16 +10965,16 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="29">
-        <v>1</v>
-      </c>
-      <c r="E6" s="29">
+      <c r="D6" s="31">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31">
         <v>2394</v>
       </c>
       <c r="F6" s="14"/>
@@ -10872,16 +10984,16 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D7" s="29">
-        <v>1</v>
-      </c>
-      <c r="E7" s="29">
+      <c r="D7" s="31">
+        <v>1</v>
+      </c>
+      <c r="E7" s="31">
         <v>2394</v>
       </c>
       <c r="F7" s="14"/>
@@ -10891,16 +11003,16 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D8" s="29">
-        <v>1</v>
-      </c>
-      <c r="E8" s="29">
+      <c r="D8" s="31">
+        <v>1</v>
+      </c>
+      <c r="E8" s="31">
         <v>2398</v>
       </c>
       <c r="F8" s="14"/>
@@ -10910,16 +11022,16 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D9" s="29">
-        <v>1</v>
-      </c>
-      <c r="E9" s="29">
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" s="31">
         <v>2406</v>
       </c>
       <c r="F9" s="14"/>
@@ -10929,16 +11041,16 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="29">
-        <v>1</v>
-      </c>
-      <c r="E10" s="29">
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="31">
         <v>2342</v>
       </c>
       <c r="F10" s="14"/>
@@ -10948,16 +11060,16 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="31">
         <v>2</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="31">
         <v>4646</v>
       </c>
       <c r="F11" s="14"/>
@@ -10967,16 +11079,16 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D12" s="29">
-        <v>1</v>
-      </c>
-      <c r="E12" s="29">
+      <c r="D12" s="31">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31">
         <v>2340</v>
       </c>
       <c r="F12" s="14"/>
@@ -11223,15 +11335,15 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -11629,15 +11741,15 @@
       <selection activeCell="B5" sqref="B5:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -11702,16 +11814,16 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="28">
-        <v>1</v>
-      </c>
-      <c r="E5" s="27">
+      <c r="D5" s="30">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
         <v>2867.172</v>
       </c>
       <c r="F5" s="17">
@@ -11724,16 +11836,16 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="28">
-        <v>1</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
         <v>3342.427</v>
       </c>
       <c r="F6" s="17">
@@ -11746,16 +11858,16 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="30">
         <v>2</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>3621.561</v>
       </c>
       <c r="F7" s="17">
@@ -11768,16 +11880,16 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="30">
         <v>4</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>3768.041</v>
       </c>
       <c r="F8" s="17">
@@ -11790,16 +11902,16 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="28">
-        <v>1</v>
-      </c>
-      <c r="E9" s="27">
+      <c r="D9" s="30">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
         <v>2261.456</v>
       </c>
       <c r="F9" s="17">
@@ -11812,16 +11924,16 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="30">
         <v>2</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <v>4374.868</v>
       </c>
       <c r="F10" s="17">
@@ -12090,15 +12202,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -12163,10 +12275,10 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D5" s="17">
@@ -12185,16 +12297,16 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>2660.4</v>
       </c>
       <c r="F6" s="17">
@@ -12207,16 +12319,16 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>350</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>889.3</v>
       </c>
       <c r="F7" s="17">
@@ -12229,16 +12341,16 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>350</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>892.5</v>
       </c>
       <c r="F8" s="17">
@@ -12251,10 +12363,10 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>350</v>
       </c>
       <c r="D9" s="17">
@@ -12536,19 +12648,19 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -13019,19 +13131,19 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -13050,7 +13162,9 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
@@ -13094,110 +13208,219 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="25">
+        <v>3</v>
+      </c>
+      <c r="E5" s="17">
+        <v>8708</v>
+      </c>
+      <c r="F5" s="17">
+        <v>8708</v>
+      </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" ht="21.95" customHeight="1" spans="1:7">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>2968</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" ref="F6:F14" si="0">E6*D6</f>
+        <v>2968</v>
+      </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" ht="21.95" customHeight="1" spans="1:7">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2970</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="0"/>
+        <v>2970</v>
+      </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" ht="21.95" customHeight="1" spans="1:7">
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="B8" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2984</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="0"/>
+        <v>2984</v>
+      </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" ht="21.95" customHeight="1" spans="1:7">
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2988</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="0"/>
+        <v>2988</v>
+      </c>
       <c r="G9" s="11"/>
     </row>
     <row r="10" ht="21.95" customHeight="1" spans="1:7">
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>2902</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="0"/>
+        <v>2902</v>
+      </c>
       <c r="G10" s="11"/>
     </row>
     <row r="11" ht="21.95" customHeight="1" spans="1:7">
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1578</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>1578</v>
+      </c>
       <c r="G11" s="11"/>
     </row>
     <row r="12" ht="21.95" customHeight="1" spans="1:7">
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
+      <c r="B12" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1546</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>1546</v>
+      </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" ht="21.95" customHeight="1" spans="1:7">
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
+      <c r="B13" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1572</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>1572</v>
+      </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14" ht="21.95" customHeight="1" spans="1:7">
       <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
+      <c r="B14" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1574</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>1574</v>
+      </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" ht="21.95" customHeight="1" spans="1:7">
@@ -13375,7 +13598,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="20">
         <f>SUM(F5:F29)</f>
-        <v>0</v>
+        <v>29790</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -13412,19 +13635,19 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -13443,7 +13666,9 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
@@ -13487,77 +13712,154 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1599.9</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" ref="F5:F11" si="0">E5*D5</f>
+        <v>1599.9</v>
+      </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" ht="21.95" customHeight="1" spans="1:7">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1588.3</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>1588.3</v>
+      </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" ht="21.95" customHeight="1" spans="1:7">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1599.9</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="0"/>
+        <v>1599.9</v>
+      </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" ht="21.95" customHeight="1" spans="1:7">
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="B8" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1252</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="0"/>
+        <v>1252</v>
+      </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" ht="21.95" customHeight="1" spans="1:7">
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1252</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="0"/>
+        <v>1252</v>
+      </c>
       <c r="G9" s="11"/>
     </row>
     <row r="10" ht="21.95" customHeight="1" spans="1:7">
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1247.5</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="0"/>
+        <v>1247.5</v>
+      </c>
       <c r="G10" s="11"/>
     </row>
     <row r="11" ht="21.95" customHeight="1" spans="1:7">
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1214.4</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>1214.4</v>
+      </c>
       <c r="G11" s="11"/>
     </row>
     <row r="12" ht="21.95" customHeight="1" spans="1:7">
@@ -13768,7 +14070,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="20">
         <f>SUM(F5:F29)</f>
-        <v>0</v>
+        <v>9754</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -13805,19 +14107,19 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -13836,7 +14138,9 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
@@ -13880,22 +14184,44 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1588.3</v>
+      </c>
+      <c r="F5" s="17">
+        <f>E5*D5</f>
+        <v>1588.3</v>
+      </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" ht="21.95" customHeight="1" spans="1:7">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="17">
+        <v>14</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1651.1</v>
+      </c>
+      <c r="F6" s="17">
+        <f>E6*D6</f>
+        <v>23115.4</v>
+      </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" ht="21.95" customHeight="1" spans="1:7">
@@ -14161,7 +14487,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="20">
         <f>SUM(F5:F29)</f>
-        <v>0</v>
+        <v>24703.7</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -14198,19 +14524,19 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -14229,7 +14555,9 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
@@ -14273,143 +14601,243 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="16">
+        <v>4</v>
+      </c>
+      <c r="E5" s="17">
+        <v>6450</v>
+      </c>
+      <c r="F5" s="17">
+        <v>6450</v>
+      </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" ht="21.95" customHeight="1" spans="1:7">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1613</v>
+      </c>
+      <c r="F6" s="17">
+        <f>D6*E6</f>
+        <v>3226</v>
+      </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" ht="21.95" customHeight="1" spans="1:7">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1116</v>
+      </c>
+      <c r="F7" s="17">
+        <f>E7*D7</f>
+        <v>1116</v>
+      </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" ht="21.95" customHeight="1" spans="1:7">
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="B8" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="16">
+        <v>5</v>
+      </c>
+      <c r="E8" s="26">
+        <v>5207.4</v>
+      </c>
+      <c r="F8" s="26">
+        <v>5207.4</v>
+      </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" ht="21.95" customHeight="1" spans="1:7">
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="16">
+        <v>6</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" ht="21.95" customHeight="1" spans="1:7">
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" ht="21.95" customHeight="1" spans="1:7">
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" ht="21.95" customHeight="1" spans="1:7">
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
+      <c r="B12" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" ht="21.95" customHeight="1" spans="1:7">
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
+      <c r="B13" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" ht="21.95" customHeight="1" spans="1:7">
       <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
+      <c r="B14" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" s="16">
+        <v>25</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" ht="21.95" customHeight="1" spans="1:7">
       <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
+      <c r="B15" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" s="16">
+        <v>9</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" ht="21.95" customHeight="1" spans="1:7">
       <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
+      <c r="B16" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D16" s="16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="26">
+        <v>526</v>
+      </c>
+      <c r="F16" s="26">
+        <v>526</v>
+      </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" ht="21.95" customHeight="1" spans="1:7">
       <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
+      <c r="B17" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" s="16">
+        <v>4</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" ht="21.95" customHeight="1" spans="1:7">
@@ -14554,7 +14982,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="20">
         <f>SUM(F5:F29)</f>
-        <v>0</v>
+        <v>16525.4</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -14573,12 +15001,16 @@
       <c r="F32" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E8:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <pageMargins left="0.393055555555556" right="0.156944444444444" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -14595,15 +15027,15 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -14988,15 +15420,15 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -15381,15 +15813,15 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -15774,15 +16206,15 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -16193,6 +16625,792 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="15" customHeight="1"/>
+    <row r="32" ht="18" customHeight="1" spans="1:6">
+      <c r="A32" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="D32" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E32:F32"/>
+  </mergeCells>
+  <pageMargins left="0.393055555555556" right="0.156944444444444" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="29.1" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" ht="5.1" customHeight="1" spans="2:7">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A19" s="11">
+        <v>15</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A20" s="11">
+        <v>16</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A21" s="11">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A22" s="11">
+        <v>18</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A23" s="11">
+        <v>19</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A24" s="11">
+        <v>20</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A25" s="11">
+        <v>21</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A26" s="11">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A27" s="11">
+        <v>23</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A28" s="11">
+        <v>24</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A29" s="11">
+        <v>25</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="20">
+        <f>SUM(F5:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="15" customHeight="1"/>
+    <row r="32" ht="18" customHeight="1" spans="1:6">
+      <c r="A32" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="D32" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E32:F32"/>
+  </mergeCells>
+  <pageMargins left="0.393055555555556" right="0.156944444444444" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="29.1" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" ht="5.1" customHeight="1" spans="2:7">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A19" s="11">
+        <v>15</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A20" s="11">
+        <v>16</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A21" s="11">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A22" s="11">
+        <v>18</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A23" s="11">
+        <v>19</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A24" s="11">
+        <v>20</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A25" s="11">
+        <v>21</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A26" s="11">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A27" s="11">
+        <v>23</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A28" s="11">
+        <v>24</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A29" s="11">
+        <v>25</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="20">
+        <f>SUM(F5:F29)</f>
+        <v>0</v>
+      </c>
       <c r="G30" s="11"/>
     </row>
     <row r="31" ht="15" customHeight="1"/>
@@ -16232,15 +17450,15 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -16690,7 +17908,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" ht="15" customHeight="1" spans="2:2">
-      <c r="B31" s="38"/>
+      <c r="B31" s="40"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:6">
       <c r="A32" s="21" t="s">
@@ -16728,15 +17946,15 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -16810,7 +18028,7 @@
       <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="39">
         <v>399</v>
       </c>
       <c r="F5" s="16">
@@ -16832,7 +18050,7 @@
       <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="39">
         <v>375</v>
       </c>
       <c r="F6" s="16">
@@ -16854,7 +18072,7 @@
       <c r="D7" s="15">
         <v>1</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="39">
         <v>399</v>
       </c>
       <c r="F7" s="16">
@@ -16876,7 +18094,7 @@
       <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="39">
         <v>389</v>
       </c>
       <c r="F8" s="16">
@@ -16898,7 +18116,7 @@
       <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="39">
         <v>401.8</v>
       </c>
       <c r="F9" s="16">
@@ -16920,7 +18138,7 @@
       <c r="D10" s="15">
         <v>1</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="39">
         <v>400</v>
       </c>
       <c r="F10" s="16">
@@ -16942,7 +18160,7 @@
       <c r="D11" s="15">
         <v>1</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="39">
         <v>413.2</v>
       </c>
       <c r="F11" s="16">
@@ -16964,7 +18182,7 @@
       <c r="D12" s="15">
         <v>1</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="39">
         <v>401.8</v>
       </c>
       <c r="F12" s="16">
@@ -16986,7 +18204,7 @@
       <c r="D13" s="15">
         <v>1</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="39">
         <v>407</v>
       </c>
       <c r="F13" s="16">
@@ -17008,7 +18226,7 @@
       <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="39">
         <v>368</v>
       </c>
       <c r="F14" s="16">
@@ -17030,7 +18248,7 @@
       <c r="D15" s="15">
         <v>1</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="39">
         <v>403.2</v>
       </c>
       <c r="F15" s="16">
@@ -17052,7 +18270,7 @@
       <c r="D16" s="15">
         <v>1</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="39">
         <v>413.2</v>
       </c>
       <c r="F16" s="16">
@@ -17074,7 +18292,7 @@
       <c r="D17" s="15">
         <v>1</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="39">
         <v>535.1</v>
       </c>
       <c r="F17" s="16">
@@ -17096,7 +18314,7 @@
       <c r="D18" s="15">
         <v>2</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="39">
         <v>529.6</v>
       </c>
       <c r="F18" s="16">
@@ -17118,7 +18336,7 @@
       <c r="D19" s="15">
         <v>1</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="39">
         <v>540</v>
       </c>
       <c r="F19" s="16">
@@ -17140,7 +18358,7 @@
       <c r="D20" s="15">
         <v>1</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="39">
         <v>543.8</v>
       </c>
       <c r="F20" s="16">
@@ -17162,7 +18380,7 @@
       <c r="D21" s="15">
         <v>2</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="39">
         <v>538</v>
       </c>
       <c r="F21" s="16">
@@ -17206,7 +18424,7 @@
       <c r="D23" s="15">
         <v>1</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="39">
         <v>544</v>
       </c>
       <c r="F23" s="16">
@@ -17228,7 +18446,7 @@
       <c r="D24" s="15">
         <v>1</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="39">
         <v>530</v>
       </c>
       <c r="F24" s="16">
@@ -17368,15 +18586,15 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -18523,15 +19741,15 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -18596,19 +19814,19 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="35">
         <v>2</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="35">
         <v>27824</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="36">
         <f>E5</f>
         <v>27824</v>
       </c>
@@ -18618,11 +19836,11 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7" ht="21.95" customHeight="1" spans="1:7">
@@ -18935,15 +20153,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -19017,7 +20235,7 @@
       <c r="D5" s="15">
         <v>84</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="34">
         <v>2.3</v>
       </c>
       <c r="F5" s="18">
@@ -19338,15 +20556,15 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.2542372881356" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8728813559322" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.3728813559322" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6271186440678" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3728813559322" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6271186440678" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7542372881356" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.3703703703704" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3703703703704" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>

--- a/入库日报表.xlsx
+++ b/入库日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" firstSheet="17" activeTab="25"/>
+    <workbookView windowWidth="30720" windowHeight="13740" firstSheet="19" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="浮空栈道1.7" sheetId="4" r:id="rId1"/>
@@ -33,8 +33,8 @@
     <sheet name="广东华丰1.25" sheetId="29" r:id="rId24"/>
     <sheet name="广东华丰1.26" sheetId="30" r:id="rId25"/>
     <sheet name="广东华丰1.27" sheetId="34" r:id="rId26"/>
-    <sheet name="模板 (11)" sheetId="31" r:id="rId27"/>
-    <sheet name="模板 (3)" sheetId="35" r:id="rId28"/>
+    <sheet name="大东海1.28" sheetId="31" r:id="rId27"/>
+    <sheet name="广东华丰1.29" sheetId="35" r:id="rId28"/>
     <sheet name="模板 (7)" sheetId="27" r:id="rId29"/>
     <sheet name="模板 (12)" sheetId="32" r:id="rId30"/>
     <sheet name="模板 (13)" sheetId="33" r:id="rId31"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="398">
   <si>
     <t>正建股份-钢结构生产车间成品构件入库日报表</t>
   </si>
@@ -1284,6 +1284,33 @@
   <si>
     <t>SC3</t>
   </si>
+  <si>
+    <t>大东海</t>
+  </si>
+  <si>
+    <t>3GZ21</t>
+  </si>
+  <si>
+    <t>PL14*550</t>
+  </si>
+  <si>
+    <t>DCL1B</t>
+  </si>
+  <si>
+    <t>DCL2A</t>
+  </si>
+  <si>
+    <t>DCL3</t>
+  </si>
+  <si>
+    <t>DCL3A</t>
+  </si>
+  <si>
+    <t>DCL3B</t>
+  </si>
+  <si>
+    <t>DCL4</t>
+  </si>
 </sst>
 </file>
 
@@ -1291,9 +1318,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -1381,9 +1408,66 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1395,8 +1479,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1411,63 +1556,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <i/>
@@ -1479,45 +1572,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1532,9 +1587,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1546,16 +1601,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1568,43 +1631,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1612,8 +1638,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1636,7 +1663,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,7 +1753,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,19 +1807,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,13 +1909,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399853511154515"/>
+        <fgColor theme="5" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399761955626087"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,31 +2011,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399853511154515"/>
+        <fgColor theme="9" tint="0.399761955626087"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799920651875362"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,43 +2119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,19 +2131,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399761955626087"/>
+        <fgColor theme="9" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,157 +2161,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799798577837458"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2002,13 +2215,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799768059327982"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2044,211 +2269,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799768059327982"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2336,47 +2363,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2384,8 +2375,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2407,9 +2398,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2423,13 +2431,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2438,7 +2465,34 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399761955626087"/>
+        <color theme="4" tint="0.399914548173467"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399792474135563"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2464,24 +2518,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399792474135563"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399853511154515"/>
       </bottom>
@@ -2492,16 +2528,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399945066682943"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.399761955626087"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2513,1277 +2540,1277 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3859,7 +3886,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3869,9 +3902,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3911,14 +3941,14 @@
   <cellStyles count="425">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="3"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="输出 3" xfId="7"/>
-    <cellStyle name="链接单元格 3 2" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="9"/>
+    <cellStyle name="链接单元格 3 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="输出 3" xfId="5"/>
+    <cellStyle name="输入" xfId="6" builtinId="20"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="7"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="9"/>
     <cellStyle name="千位分隔[0]" xfId="10" builtinId="6"/>
     <cellStyle name="60% - 强调文字颜色 1 3 5" xfId="11"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
@@ -3932,19 +3962,19 @@
     <cellStyle name="百分比" xfId="20" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9"/>
-    <cellStyle name="注释" xfId="23" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="25"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="26"/>
-    <cellStyle name="警告文本" xfId="27" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="28"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="解释性文本 2 2" xfId="30"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="31"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="23"/>
+    <cellStyle name="注释" xfId="24" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="26"/>
+    <cellStyle name="标题 4" xfId="27" builtinId="19"/>
+    <cellStyle name="解释性文本 2 2" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="29"/>
+    <cellStyle name="警告文本" xfId="30" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="31"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="33"/>
+    <cellStyle name="强调文字颜色 1 2 3" xfId="33"/>
     <cellStyle name="常规 5 2" xfId="34"/>
-    <cellStyle name="强调文字颜色 1 2 3" xfId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="35"/>
     <cellStyle name="标题" xfId="36" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="37" builtinId="53"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="38"/>
@@ -3958,28 +3988,28 @@
     <cellStyle name="输出" xfId="46" builtinId="21"/>
     <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="47"/>
     <cellStyle name="计算" xfId="48" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="49"/>
-    <cellStyle name="计算 3 2" xfId="50"/>
+    <cellStyle name="计算 3 2" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
     <cellStyle name="检查单元格" xfId="51" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="52" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="53" builtinId="33"/>
     <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="54"/>
     <cellStyle name="链接单元格" xfId="55" builtinId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="56"/>
-    <cellStyle name="强调文字颜色 3 2 4" xfId="57"/>
+    <cellStyle name="强调文字颜色 3 2 4" xfId="56"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="57"/>
     <cellStyle name="汇总" xfId="58" builtinId="25"/>
     <cellStyle name="差 3 4" xfId="59"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="61"/>
-    <cellStyle name="输出 3 3" xfId="62"/>
+    <cellStyle name="输出 3 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="检查单元格 3 2" xfId="65"/>
     <cellStyle name="强调文字颜色 1" xfId="66" builtinId="29"/>
     <cellStyle name="链接单元格 3" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="68" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="69"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="70"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="69"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="70"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="71" builtinId="31"/>
     <cellStyle name="输出 2" xfId="72"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="73" builtinId="34"/>
@@ -3994,83 +4024,83 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="85"/>
-    <cellStyle name="适中 2" xfId="86"/>
+    <cellStyle name="适中 2" xfId="85"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="86"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="87" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="88" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 1 2 7" xfId="89"/>
     <cellStyle name="20% - 强调文字颜色 1 3 7" xfId="90"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="91"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="93"/>
-    <cellStyle name="链接单元格 3 3" xfId="94"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="92"/>
+    <cellStyle name="链接单元格 3 3" xfId="93"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="94"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="97"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="97"/>
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
     <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="99"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="101"/>
+    <cellStyle name="计算 2 2" xfId="101"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="102"/>
-    <cellStyle name="计算 2 2" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="103"/>
+    <cellStyle name="计算 2 3" xfId="104"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="105"/>
-    <cellStyle name="计算 2 3" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="106"/>
     <cellStyle name="20% - 强调文字颜色 1 3 6" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="108"/>
+    <cellStyle name="输出 2 2" xfId="108"/>
     <cellStyle name="20% - 强调文字颜色 3 2 7" xfId="109"/>
-    <cellStyle name="输出 2 2" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="114"/>
     <cellStyle name="20% - 强调文字颜色 2 2 7" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="116"/>
-    <cellStyle name="输出 2 3" xfId="117"/>
+    <cellStyle name="输出 2 3" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="117"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="120"/>
-    <cellStyle name="常规 2 2 2" xfId="121"/>
+    <cellStyle name="常规 2 2 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="121"/>
     <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="122"/>
     <cellStyle name="20% - 强调文字颜色 2 3 7" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="124"/>
+    <cellStyle name="输出 3 2" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 3 3 7" xfId="125"/>
-    <cellStyle name="输出 3 2" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="132"/>
-    <cellStyle name="适中 3" xfId="133"/>
+    <cellStyle name="适中 3" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="133"/>
     <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="134"/>
     <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="135"/>
     <cellStyle name="20% - 强调文字颜色 3 3 6" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="137"/>
+    <cellStyle name="常规 3" xfId="137"/>
     <cellStyle name="60% - 强调文字颜色 1 2 7" xfId="138"/>
-    <cellStyle name="常规 3" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="140"/>
-    <cellStyle name="常规 3 2" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="139"/>
+    <cellStyle name="常规 3 2" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="141"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="142"/>
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="144"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="146"/>
-    <cellStyle name="强调文字颜色 5 3" xfId="147"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="145"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 4 2 7" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="149"/>
-    <cellStyle name="常规 4" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="151"/>
-    <cellStyle name="常规 4 2" xfId="152"/>
+    <cellStyle name="常规 4" xfId="149"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="150"/>
+    <cellStyle name="常规 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="153"/>
     <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="155"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="157"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="158"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="156"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 3 7" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="160"/>
-    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="161"/>
+    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="160"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="161"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="164"/>
@@ -4079,177 +4109,177 @@
     <cellStyle name="20% - 强调文字颜色 5 2 7" xfId="167"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="170"/>
+    <cellStyle name="解释性文本 2 3" xfId="170"/>
     <cellStyle name="标题 5" xfId="171"/>
-    <cellStyle name="解释性文本 2 3" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="173"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="174"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="172"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="175"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 6 2 7" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="181"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="183"/>
-    <cellStyle name="好 2 5" xfId="184"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="182"/>
+    <cellStyle name="好 2 5" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="184"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="186"/>
-    <cellStyle name="注释 2 2" xfId="187"/>
+    <cellStyle name="注释 2 2" xfId="186"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="187"/>
     <cellStyle name="20% - 强调文字颜色 6 3 6" xfId="188"/>
     <cellStyle name="20% - 强调文字颜色 6 3 7" xfId="189"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="190"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="191"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="192"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="191"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="192"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="194"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="195"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="196"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="195"/>
+    <cellStyle name="解释性文本 3 3" xfId="196"/>
     <cellStyle name="60% - 强调文字颜色 3 2 7" xfId="197"/>
-    <cellStyle name="解释性文本 3 3" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="199"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="201"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="202"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="198"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="200"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="203"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="204"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="205"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="206"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="204"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="205"/>
+    <cellStyle name="检查单元格 2" xfId="206"/>
     <cellStyle name="60% - 强调文字颜色 5 2 7" xfId="207"/>
-    <cellStyle name="检查单元格 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="209"/>
-    <cellStyle name="检查单元格 3" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="211"/>
-    <cellStyle name="计算 3 3" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="213"/>
-    <cellStyle name="好 2 3" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="208"/>
+    <cellStyle name="检查单元格 3" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="210"/>
+    <cellStyle name="计算 3 3" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="212"/>
+    <cellStyle name="好 2 3" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="214"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="215"/>
     <cellStyle name="60% - 强调文字颜色 4 3" xfId="216"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="217"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="219"/>
-    <cellStyle name="好 2 4" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="221"/>
+    <cellStyle name="好 2 4" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="220"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="221"/>
     <cellStyle name="60% - 强调文字颜色 5 3" xfId="222"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="225"/>
+    <cellStyle name="适中 2 2" xfId="225"/>
     <cellStyle name="好 3 3" xfId="226"/>
-    <cellStyle name="适中 2 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="230"/>
-    <cellStyle name="好 3 4" xfId="231"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="232"/>
-    <cellStyle name="适中 2 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="234"/>
-    <cellStyle name="解释性文本 3" xfId="235"/>
+    <cellStyle name="适中 2 3" xfId="230"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="231"/>
+    <cellStyle name="好 3 4" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="233"/>
+    <cellStyle name="解释性文本 3" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="235"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="236"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="237"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="238"/>
     <cellStyle name="60% - 强调文字颜色 1 2 3" xfId="239"/>
     <cellStyle name="60% - 强调文字颜色 1 2 4" xfId="240"/>
     <cellStyle name="60% - 强调文字颜色 1 2 5" xfId="241"/>
-    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="242"/>
-    <cellStyle name="常规 2" xfId="243"/>
+    <cellStyle name="常规 2" xfId="242"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="243"/>
     <cellStyle name="60% - 强调文字颜色 1 3" xfId="244"/>
     <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="245"/>
     <cellStyle name="60% - 强调文字颜色 1 3 3" xfId="246"/>
     <cellStyle name="60% - 强调文字颜色 1 3 4" xfId="247"/>
     <cellStyle name="60% - 强调文字颜色 1 3 6" xfId="248"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="249"/>
-    <cellStyle name="常规 5" xfId="250"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="251"/>
-    <cellStyle name="强调文字颜色 1 2 4" xfId="252"/>
+    <cellStyle name="常规 5" xfId="249"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="250"/>
+    <cellStyle name="强调文字颜色 1 2 4" xfId="251"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="252"/>
     <cellStyle name="60% - 强调文字颜色 2 2 4" xfId="253"/>
     <cellStyle name="60% - 强调文字颜色 2 2 5" xfId="254"/>
     <cellStyle name="60% - 强调文字颜色 2 2 6" xfId="255"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="256"/>
+    <cellStyle name="注释 2" xfId="256"/>
     <cellStyle name="强调文字颜色 1 3 3" xfId="257"/>
-    <cellStyle name="注释 2" xfId="258"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="259"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="258"/>
+    <cellStyle name="注释 3" xfId="259"/>
     <cellStyle name="强调文字颜色 1 3 4" xfId="260"/>
-    <cellStyle name="注释 3" xfId="261"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="261"/>
     <cellStyle name="60% - 强调文字颜色 2 3 4" xfId="262"/>
     <cellStyle name="60% - 强调文字颜色 2 3 6" xfId="263"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="264"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="265"/>
-    <cellStyle name="强调文字颜色 2 2 3" xfId="266"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="267"/>
-    <cellStyle name="强调文字颜色 2 2 4" xfId="268"/>
+    <cellStyle name="强调文字颜色 2 2 3" xfId="265"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="266"/>
+    <cellStyle name="强调文字颜色 2 2 4" xfId="267"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="268"/>
     <cellStyle name="60% - 强调文字颜色 3 2 4" xfId="269"/>
     <cellStyle name="60% - 强调文字颜色 3 2 5" xfId="270"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="271"/>
-    <cellStyle name="解释性文本 3 2" xfId="272"/>
+    <cellStyle name="解释性文本 3 2" xfId="271"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="272"/>
     <cellStyle name="60% - 强调文字颜色 3 3" xfId="273"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="274"/>
-    <cellStyle name="强调文字颜色 2 3 3" xfId="275"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="276"/>
-    <cellStyle name="强调文字颜色 2 3 4" xfId="277"/>
+    <cellStyle name="强调文字颜色 2 3 3" xfId="274"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="275"/>
+    <cellStyle name="强调文字颜色 2 3 4" xfId="276"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="277"/>
     <cellStyle name="60% - 强调文字颜色 3 3 4" xfId="278"/>
     <cellStyle name="60% - 强调文字颜色 3 3 5" xfId="279"/>
     <cellStyle name="60% - 强调文字颜色 3 3 6" xfId="280"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="281"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="282"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="283"/>
-    <cellStyle name="好 3 5" xfId="284"/>
-    <cellStyle name="强调文字颜色 3 2 3" xfId="285"/>
-    <cellStyle name="适中 2 4" xfId="286"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="287"/>
-    <cellStyle name="注释 3 2" xfId="288"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="281"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="282"/>
+    <cellStyle name="适中 2 4" xfId="283"/>
+    <cellStyle name="强调文字颜色 3 2 3" xfId="284"/>
+    <cellStyle name="好 3 5" xfId="285"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="286"/>
+    <cellStyle name="注释 3 2" xfId="287"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="288"/>
     <cellStyle name="60% - 强调文字颜色 4 2 5" xfId="289"/>
     <cellStyle name="60% - 强调文字颜色 4 2 6" xfId="290"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="291"/>
+    <cellStyle name="适中 3 4" xfId="291"/>
     <cellStyle name="强调文字颜色 3 3 3" xfId="292"/>
-    <cellStyle name="适中 3 4" xfId="293"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="294"/>
-    <cellStyle name="强调文字颜色 3 3 4" xfId="295"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="293"/>
+    <cellStyle name="强调文字颜色 3 3 4" xfId="294"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="295"/>
     <cellStyle name="60% - 强调文字颜色 4 3 4" xfId="296"/>
     <cellStyle name="60% - 强调文字颜色 4 3 5" xfId="297"/>
     <cellStyle name="60% - 强调文字颜色 4 3 6" xfId="298"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="299"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="300"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="301"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="299"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="300"/>
+    <cellStyle name="强调文字颜色 4 2 3" xfId="301"/>
     <cellStyle name="标题 3 2 6" xfId="302"/>
-    <cellStyle name="强调文字颜色 4 2 3" xfId="303"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="304"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="303"/>
+    <cellStyle name="强调文字颜色 4 2 4" xfId="304"/>
     <cellStyle name="标题 3 2 7" xfId="305"/>
-    <cellStyle name="强调文字颜色 4 2 4" xfId="306"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="306"/>
     <cellStyle name="60% - 强调文字颜色 5 2 4" xfId="307"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="308"/>
-    <cellStyle name="标题 4 2" xfId="309"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="310"/>
+    <cellStyle name="标题 4 2" xfId="308"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="309"/>
+    <cellStyle name="汇总 2 2" xfId="310"/>
     <cellStyle name="标题 4 3" xfId="311"/>
-    <cellStyle name="汇总 2 2" xfId="312"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="313"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="312"/>
+    <cellStyle name="强调文字颜色 4 3 3" xfId="313"/>
     <cellStyle name="标题 3 3 6" xfId="314"/>
-    <cellStyle name="强调文字颜色 4 3 3" xfId="315"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="316"/>
-    <cellStyle name="标题 3 3 7" xfId="317"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="318"/>
-    <cellStyle name="强调文字颜色 4 3 4" xfId="319"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="320"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="321"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="322"/>
-    <cellStyle name="标题 5 2" xfId="323"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="324"/>
-    <cellStyle name="汇总 3 2" xfId="325"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="315"/>
+    <cellStyle name="强调文字颜色 4 3 4" xfId="316"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="317"/>
+    <cellStyle name="标题 3 3 7" xfId="318"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="319"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="320"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="321"/>
+    <cellStyle name="标题 5 2" xfId="322"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="323"/>
+    <cellStyle name="汇总 3 2" xfId="324"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="325"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="326"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="327"/>
-    <cellStyle name="强调文字颜色 5 2 3" xfId="328"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="329"/>
-    <cellStyle name="强调文字颜色 5 2 4" xfId="330"/>
+    <cellStyle name="强调文字颜色 5 2 3" xfId="327"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="328"/>
+    <cellStyle name="强调文字颜色 5 2 4" xfId="329"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="330"/>
     <cellStyle name="60% - 强调文字颜色 6 3" xfId="331"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="332"/>
-    <cellStyle name="强调文字颜色 5 3 4" xfId="333"/>
+    <cellStyle name="强调文字颜色 5 3 4" xfId="332"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="333"/>
     <cellStyle name="60% - 强调文字颜色 6 3 4" xfId="334"/>
     <cellStyle name="60% - 强调文字颜色 6 3 5" xfId="335"/>
     <cellStyle name="标题 1 2" xfId="336"/>
     <cellStyle name="标题 1 2 2" xfId="337"/>
     <cellStyle name="标题 1 3" xfId="338"/>
-    <cellStyle name="标题 1 3 2" xfId="339"/>
-    <cellStyle name="汇总 3" xfId="340"/>
+    <cellStyle name="汇总 3" xfId="339"/>
+    <cellStyle name="标题 1 3 2" xfId="340"/>
     <cellStyle name="标题 2 2" xfId="341"/>
     <cellStyle name="标题 2 2 2" xfId="342"/>
     <cellStyle name="标题 2 3" xfId="343"/>
@@ -4258,18 +4288,18 @@
     <cellStyle name="标题 3 2 2" xfId="346"/>
     <cellStyle name="标题 3 2 3" xfId="347"/>
     <cellStyle name="标题 3 2 4" xfId="348"/>
-    <cellStyle name="标题 3 2 5" xfId="349"/>
-    <cellStyle name="强调文字颜色 4 2 2" xfId="350"/>
+    <cellStyle name="强调文字颜色 4 2 2" xfId="349"/>
+    <cellStyle name="标题 3 2 5" xfId="350"/>
     <cellStyle name="标题 3 3" xfId="351"/>
     <cellStyle name="标题 3 3 2" xfId="352"/>
     <cellStyle name="标题 3 3 3" xfId="353"/>
     <cellStyle name="标题 3 3 4" xfId="354"/>
-    <cellStyle name="标题 3 3 5" xfId="355"/>
-    <cellStyle name="强调文字颜色 4 3 2" xfId="356"/>
+    <cellStyle name="强调文字颜色 4 3 2" xfId="355"/>
+    <cellStyle name="标题 3 3 5" xfId="356"/>
     <cellStyle name="标题 4 2 2" xfId="357"/>
     <cellStyle name="标题 4 3 2" xfId="358"/>
-    <cellStyle name="标题 6" xfId="359"/>
-    <cellStyle name="解释性文本 2 4" xfId="360"/>
+    <cellStyle name="解释性文本 2 4" xfId="359"/>
+    <cellStyle name="标题 6" xfId="360"/>
     <cellStyle name="标题 6 2" xfId="361"/>
     <cellStyle name="差 2" xfId="362"/>
     <cellStyle name="差 2 2" xfId="363"/>
@@ -4281,11 +4311,11 @@
     <cellStyle name="差 3 3" xfId="369"/>
     <cellStyle name="差 3 5" xfId="370"/>
     <cellStyle name="常规 2 2" xfId="371"/>
-    <cellStyle name="常规 2 3" xfId="372"/>
-    <cellStyle name="输入 3 2" xfId="373"/>
+    <cellStyle name="输入 3 2" xfId="372"/>
+    <cellStyle name="常规 2 3" xfId="373"/>
     <cellStyle name="常规 2 3 2" xfId="374"/>
-    <cellStyle name="常规 2 4" xfId="375"/>
-    <cellStyle name="输入 3 3" xfId="376"/>
+    <cellStyle name="输入 3 3" xfId="375"/>
+    <cellStyle name="常规 2 4" xfId="376"/>
     <cellStyle name="常规 7" xfId="377"/>
     <cellStyle name="好 2" xfId="378"/>
     <cellStyle name="好 2 2" xfId="379"/>
@@ -4311,16 +4341,16 @@
     <cellStyle name="强调文字颜色 2 2" xfId="399"/>
     <cellStyle name="强调文字颜色 2 2 2" xfId="400"/>
     <cellStyle name="强调文字颜色 2 3" xfId="401"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="402"/>
-    <cellStyle name="输入 2 4" xfId="403"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="404"/>
-    <cellStyle name="输入 2 5" xfId="405"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="406"/>
-    <cellStyle name="适中 3 3" xfId="407"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="408"/>
-    <cellStyle name="输入 3 4" xfId="409"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="410"/>
-    <cellStyle name="输入 3 5" xfId="411"/>
+    <cellStyle name="输入 2 4" xfId="402"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="403"/>
+    <cellStyle name="输入 2 5" xfId="404"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="405"/>
+    <cellStyle name="适中 3 3" xfId="406"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="407"/>
+    <cellStyle name="输入 3 4" xfId="408"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="409"/>
+    <cellStyle name="输入 3 5" xfId="410"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="411"/>
     <cellStyle name="强调文字颜色 5 2 2" xfId="412"/>
     <cellStyle name="强调文字颜色 5 3 2" xfId="413"/>
     <cellStyle name="强调文字颜色 6 2 2" xfId="414"/>
@@ -6443,7 +6473,7 @@
       <c r="C5" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="34">
         <v>1</v>
       </c>
       <c r="E5" s="17">
@@ -6465,7 +6495,7 @@
       <c r="C6" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="34">
         <v>9</v>
       </c>
       <c r="E6" s="17">
@@ -6487,7 +6517,7 @@
       <c r="C7" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="34">
         <v>1</v>
       </c>
       <c r="E7" s="17">
@@ -6509,7 +6539,7 @@
       <c r="C8" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="34">
         <v>1</v>
       </c>
       <c r="E8" s="17">
@@ -6531,7 +6561,7 @@
       <c r="C9" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="34">
         <v>4</v>
       </c>
       <c r="E9" s="17">
@@ -6553,7 +6583,7 @@
       <c r="C10" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="34">
         <v>16</v>
       </c>
       <c r="E10" s="17">
@@ -6575,7 +6605,7 @@
       <c r="C11" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="34">
         <v>2</v>
       </c>
       <c r="E11" s="17">
@@ -6597,7 +6627,7 @@
       <c r="C12" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="34">
         <v>8</v>
       </c>
       <c r="E12" s="17">
@@ -6920,7 +6950,7 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>233</v>
       </c>
       <c r="C5" s="17"/>
@@ -6940,7 +6970,7 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>234</v>
       </c>
       <c r="C6" s="17"/>
@@ -6960,7 +6990,7 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>131</v>
       </c>
       <c r="C7" s="17"/>
@@ -6980,7 +7010,7 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C8" s="17"/>
@@ -7000,7 +7030,7 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>236</v>
       </c>
       <c r="C9" s="17"/>
@@ -7020,7 +7050,7 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="26" t="s">
         <v>237</v>
       </c>
       <c r="C10" s="17"/>
@@ -7040,7 +7070,7 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>238</v>
       </c>
       <c r="C11" s="17"/>
@@ -7060,7 +7090,7 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="26" t="s">
         <v>239</v>
       </c>
       <c r="C12" s="17"/>
@@ -7080,7 +7110,7 @@
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="26" t="s">
         <v>240</v>
       </c>
       <c r="C13" s="17"/>
@@ -7100,7 +7130,7 @@
       <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>241</v>
       </c>
       <c r="C14" s="17"/>
@@ -7120,7 +7150,7 @@
       <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="26" t="s">
         <v>242</v>
       </c>
       <c r="C15" s="17"/>
@@ -7140,7 +7170,7 @@
       <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="26" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="17"/>
@@ -7160,7 +7190,7 @@
       <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>244</v>
       </c>
       <c r="C17" s="17"/>
@@ -7180,7 +7210,7 @@
       <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="26" t="s">
         <v>245</v>
       </c>
       <c r="C18" s="17"/>
@@ -7200,7 +7230,7 @@
       <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="26" t="s">
         <v>246</v>
       </c>
       <c r="C19" s="17"/>
@@ -7220,7 +7250,7 @@
       <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="26" t="s">
         <v>247</v>
       </c>
       <c r="C20" s="17"/>
@@ -7240,7 +7270,7 @@
       <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="26" t="s">
         <v>248</v>
       </c>
       <c r="C21" s="17"/>
@@ -7260,7 +7290,7 @@
       <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="26" t="s">
         <v>249</v>
       </c>
       <c r="C22" s="17"/>
@@ -7280,7 +7310,7 @@
       <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="26" t="s">
         <v>250</v>
       </c>
       <c r="C23" s="17"/>
@@ -7620,7 +7650,7 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="33"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="11"/>
@@ -7631,7 +7661,7 @@
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="11"/>
@@ -8601,7 +8631,7 @@
       <c r="C5" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="33">
         <v>5</v>
       </c>
       <c r="E5" s="15">
@@ -8623,7 +8653,7 @@
       <c r="C6" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="33" t="s">
         <v>284</v>
       </c>
       <c r="E6" s="15">
@@ -8645,7 +8675,7 @@
       <c r="C7" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="33">
         <v>3</v>
       </c>
       <c r="E7" s="15">
@@ -8667,7 +8697,7 @@
       <c r="C8" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="33" t="s">
         <v>287</v>
       </c>
       <c r="E8" s="15">
@@ -8689,7 +8719,7 @@
       <c r="C9" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="33">
         <v>1</v>
       </c>
       <c r="E9" s="15">
@@ -10056,7 +10086,7 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>306</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -10078,7 +10108,7 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>307</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -10100,7 +10130,7 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>308</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -10122,7 +10152,7 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>309</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -10144,7 +10174,7 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>310</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -10166,7 +10196,7 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="26" t="s">
         <v>311</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -10188,7 +10218,7 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>312</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -10210,7 +10240,7 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="26" t="s">
         <v>313</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -10232,7 +10262,7 @@
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="26" t="s">
         <v>314</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -10254,7 +10284,7 @@
       <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>315</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -10276,7 +10306,7 @@
       <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="26" t="s">
         <v>316</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -10298,7 +10328,7 @@
       <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="26" t="s">
         <v>317</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -10320,7 +10350,7 @@
       <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>318</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -10342,7 +10372,7 @@
       <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="26" t="s">
         <v>319</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -10364,7 +10394,7 @@
       <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="26" t="s">
         <v>320</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -10386,7 +10416,7 @@
       <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="26" t="s">
         <v>321</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -10408,7 +10438,7 @@
       <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="26" t="s">
         <v>322</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -10430,7 +10460,7 @@
       <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="26" t="s">
         <v>323</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -10452,7 +10482,7 @@
       <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="26" t="s">
         <v>324</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -10474,7 +10504,7 @@
       <c r="A24" s="11">
         <v>20</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>325</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -10496,7 +10526,7 @@
       <c r="A25" s="11">
         <v>21</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="26" t="s">
         <v>326</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -10518,7 +10548,7 @@
       <c r="A26" s="11">
         <v>22</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="26" t="s">
         <v>327</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -10540,7 +10570,7 @@
       <c r="A27" s="11">
         <v>23</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="26" t="s">
         <v>328</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -10562,7 +10592,7 @@
       <c r="A28" s="11">
         <v>24</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="26" t="s">
         <v>329</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -10584,7 +10614,7 @@
       <c r="A29" s="11">
         <v>25</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>330</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -10606,7 +10636,7 @@
       <c r="A30" s="11">
         <v>26</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="26" t="s">
         <v>212</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -10628,7 +10658,7 @@
       <c r="A31" s="11">
         <v>27</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="26" t="s">
         <v>293</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -10650,7 +10680,7 @@
       <c r="A32" s="11">
         <v>28</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="26" t="s">
         <v>290</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -10672,7 +10702,7 @@
       <c r="A33" s="11">
         <v>29</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="26" t="s">
         <v>289</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -10694,7 +10724,7 @@
       <c r="A34" s="11">
         <v>30</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="26" t="s">
         <v>294</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -10716,7 +10746,7 @@
       <c r="A35" s="11">
         <v>31</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="26" t="s">
         <v>295</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -10738,7 +10768,7 @@
       <c r="A36" s="11">
         <v>32</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="26" t="s">
         <v>291</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -10760,7 +10790,7 @@
       <c r="A37" s="11">
         <v>33</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="26" t="s">
         <v>292</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -10782,7 +10812,7 @@
       <c r="A38" s="11">
         <v>34</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="26" t="s">
         <v>331</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -10804,7 +10834,7 @@
       <c r="A39" s="11">
         <v>35</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="26" t="s">
         <v>332</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -10946,16 +10976,16 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="32">
         <v>3</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="32">
         <v>7050</v>
       </c>
       <c r="F5" s="14"/>
@@ -10965,16 +10995,16 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="31">
-        <v>1</v>
-      </c>
-      <c r="E6" s="31">
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32">
         <v>2394</v>
       </c>
       <c r="F6" s="14"/>
@@ -10984,16 +11014,16 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="D7" s="31">
-        <v>1</v>
-      </c>
-      <c r="E7" s="31">
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32">
         <v>2394</v>
       </c>
       <c r="F7" s="14"/>
@@ -11003,16 +11033,16 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="D8" s="31">
-        <v>1</v>
-      </c>
-      <c r="E8" s="31">
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="32">
         <v>2398</v>
       </c>
       <c r="F8" s="14"/>
@@ -11022,16 +11052,16 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="D9" s="31">
-        <v>1</v>
-      </c>
-      <c r="E9" s="31">
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32">
         <v>2406</v>
       </c>
       <c r="F9" s="14"/>
@@ -11041,16 +11071,16 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="31">
-        <v>1</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="D10" s="32">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
         <v>2342</v>
       </c>
       <c r="F10" s="14"/>
@@ -11060,16 +11090,16 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="32">
         <v>2</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="32">
         <v>4646</v>
       </c>
       <c r="F11" s="14"/>
@@ -11079,16 +11109,16 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="D12" s="31">
-        <v>1</v>
-      </c>
-      <c r="E12" s="31">
+      <c r="D12" s="32">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32">
         <v>2340</v>
       </c>
       <c r="F12" s="14"/>
@@ -11814,16 +11844,16 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="30">
-        <v>1</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="D5" s="31">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27">
         <v>2867.172</v>
       </c>
       <c r="F5" s="17">
@@ -11836,16 +11866,16 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="D6" s="31">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27">
         <v>3342.427</v>
       </c>
       <c r="F6" s="17">
@@ -11858,16 +11888,16 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="31">
         <v>2</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="27">
         <v>3621.561</v>
       </c>
       <c r="F7" s="17">
@@ -11880,16 +11910,16 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="31">
         <v>4</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="27">
         <v>3768.041</v>
       </c>
       <c r="F8" s="17">
@@ -11902,16 +11932,16 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="30">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27">
         <v>2261.456</v>
       </c>
       <c r="F9" s="17">
@@ -11924,16 +11954,16 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="31">
         <v>2</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="27">
         <v>4374.868</v>
       </c>
       <c r="F10" s="17">
@@ -12275,10 +12305,10 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>334</v>
       </c>
       <c r="D5" s="17">
@@ -12297,16 +12327,16 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>334</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="27">
         <v>2660.4</v>
       </c>
       <c r="F6" s="17">
@@ -12319,16 +12349,16 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="27" t="s">
         <v>350</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="27">
         <v>889.3</v>
       </c>
       <c r="F7" s="17">
@@ -12341,16 +12371,16 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="27" t="s">
         <v>350</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="27">
         <v>892.5</v>
       </c>
       <c r="F8" s="17">
@@ -12363,10 +12393,10 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="27" t="s">
         <v>350</v>
       </c>
       <c r="D9" s="17">
@@ -12725,16 +12755,16 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>350</v>
       </c>
       <c r="D5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="27">
         <f>F5/D5</f>
         <v>870</v>
       </c>
@@ -12747,16 +12777,16 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>350</v>
       </c>
       <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="27">
         <v>882</v>
       </c>
       <c r="F6" s="17">
@@ -12769,16 +12799,16 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="27" t="s">
         <v>350</v>
       </c>
       <c r="D7" s="16">
         <v>4</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="27">
         <f>F7/D7</f>
         <v>871</v>
       </c>
@@ -12791,16 +12821,16 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="27" t="s">
         <v>350</v>
       </c>
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="27">
         <v>878</v>
       </c>
       <c r="F8" s="17">
@@ -12813,16 +12843,16 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="27" t="s">
         <v>350</v>
       </c>
       <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="27">
         <v>870</v>
       </c>
       <c r="F9" s="17">
@@ -12835,16 +12865,16 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="27" t="s">
         <v>350</v>
       </c>
       <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="27">
         <v>880</v>
       </c>
       <c r="F10" s="17">
@@ -12857,16 +12887,16 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="27" t="s">
         <v>350</v>
       </c>
       <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="27">
         <v>880</v>
       </c>
       <c r="F11" s="17">
@@ -12879,16 +12909,16 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="27" t="s">
         <v>350</v>
       </c>
       <c r="D12" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="27">
         <v>880</v>
       </c>
       <c r="F12" s="17">
@@ -13208,13 +13238,13 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="27">
         <v>3</v>
       </c>
       <c r="E5" s="17">
@@ -13229,13 +13259,13 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="27">
         <v>1</v>
       </c>
       <c r="E6" s="17">
@@ -13251,13 +13281,13 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="27">
         <v>1</v>
       </c>
       <c r="E7" s="17">
@@ -13273,13 +13303,13 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="27">
         <v>1</v>
       </c>
       <c r="E8" s="17">
@@ -13295,13 +13325,13 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="27">
         <v>1</v>
       </c>
       <c r="E9" s="17">
@@ -13317,13 +13347,13 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="27">
         <v>1</v>
       </c>
       <c r="E10" s="17">
@@ -13339,13 +13369,13 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="27">
         <v>1</v>
       </c>
       <c r="E11" s="17">
@@ -13361,13 +13391,13 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="27">
         <v>1</v>
       </c>
       <c r="E12" s="17">
@@ -13383,13 +13413,13 @@
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="27">
         <v>1</v>
       </c>
       <c r="E13" s="17">
@@ -13405,13 +13435,13 @@
       <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="27">
         <v>1</v>
       </c>
       <c r="E14" s="17">
@@ -13712,16 +13742,16 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>334</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="27">
         <v>1599.9</v>
       </c>
       <c r="F5" s="17">
@@ -13734,16 +13764,16 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>334</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="27">
         <v>1588.3</v>
       </c>
       <c r="F6" s="17">
@@ -13756,16 +13786,16 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="27" t="s">
         <v>334</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="27">
         <v>1599.9</v>
       </c>
       <c r="F7" s="17">
@@ -13778,16 +13808,16 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="27" t="s">
         <v>334</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="27">
         <v>1252</v>
       </c>
       <c r="F8" s="17">
@@ -13800,16 +13830,16 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="27" t="s">
         <v>334</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="27">
         <v>1252</v>
       </c>
       <c r="F9" s="17">
@@ -13822,16 +13852,16 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="27" t="s">
         <v>334</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="27">
         <v>1247.5</v>
       </c>
       <c r="F10" s="17">
@@ -13844,16 +13874,16 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="27" t="s">
         <v>334</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="27">
         <v>1214.4</v>
       </c>
       <c r="F11" s="17">
@@ -14184,16 +14214,16 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>334</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="27">
         <v>1588.3</v>
       </c>
       <c r="F5" s="17">
@@ -14209,7 +14239,7 @@
       <c r="B6" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>375</v>
       </c>
       <c r="D6" s="17">
@@ -14524,7 +14554,7 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
@@ -14604,7 +14634,7 @@
       <c r="B5" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>375</v>
       </c>
       <c r="D5" s="16">
@@ -14625,7 +14655,7 @@
       <c r="B6" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>375</v>
       </c>
       <c r="D6" s="16">
@@ -14647,7 +14677,7 @@
       <c r="B7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="27" t="s">
         <v>375</v>
       </c>
       <c r="D7" s="16">
@@ -14675,10 +14705,10 @@
       <c r="D8" s="16">
         <v>5</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="28">
         <v>5207.4</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="28">
         <v>5207.4</v>
       </c>
       <c r="G8" s="11"/>
@@ -14696,8 +14726,8 @@
       <c r="D9" s="16">
         <v>6</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" ht="21.95" customHeight="1" spans="1:7">
@@ -14713,8 +14743,8 @@
       <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" ht="21.95" customHeight="1" spans="1:7">
@@ -14730,8 +14760,8 @@
       <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" ht="21.95" customHeight="1" spans="1:7">
@@ -14747,8 +14777,8 @@
       <c r="D12" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" ht="21.95" customHeight="1" spans="1:7">
@@ -14764,8 +14794,8 @@
       <c r="D13" s="16">
         <v>1</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" ht="21.95" customHeight="1" spans="1:7">
@@ -14781,8 +14811,8 @@
       <c r="D14" s="16">
         <v>25</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" ht="21.95" customHeight="1" spans="1:7">
@@ -14798,8 +14828,8 @@
       <c r="D15" s="16">
         <v>9</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" ht="21.95" customHeight="1" spans="1:7">
@@ -14815,10 +14845,10 @@
       <c r="D16" s="16">
         <v>4</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="28">
         <v>526</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="28">
         <v>526</v>
       </c>
       <c r="G16" s="11"/>
@@ -14836,8 +14866,8 @@
       <c r="D17" s="16">
         <v>4</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" ht="21.95" customHeight="1" spans="1:7">
@@ -15023,8 +15053,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -15054,7 +15084,9 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>389</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
@@ -15098,11 +15130,21 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>13642.6</v>
+      </c>
+      <c r="F5" s="17">
+        <v>13642.6</v>
+      </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" ht="21.95" customHeight="1" spans="1:7">
@@ -15379,7 +15421,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="20">
         <f>SUM(F5:F29)</f>
-        <v>0</v>
+        <v>13642.6</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -15417,7 +15459,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -15447,7 +15489,9 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
@@ -15491,9 +15535,15 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="14"/>
       <c r="G5" s="11"/>
@@ -15502,9 +15552,15 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="16">
+        <v>5</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
       <c r="G6" s="11"/>
@@ -15513,9 +15569,15 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
       <c r="G7" s="11"/>
@@ -15524,9 +15586,15 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
       <c r="G8" s="11"/>
@@ -15535,9 +15603,15 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
       <c r="E9" s="13"/>
       <c r="F9" s="14"/>
       <c r="G9" s="11"/>
@@ -15546,9 +15620,15 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="14"/>
       <c r="G10" s="11"/>
@@ -15557,9 +15637,15 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2</v>
+      </c>
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
       <c r="G11" s="11"/>
@@ -15568,9 +15654,15 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="14"/>
       <c r="G12" s="11"/>
@@ -15579,9 +15671,15 @@
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
       <c r="G13" s="11"/>
@@ -15809,8 +15907,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -17908,7 +18006,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" ht="15" customHeight="1" spans="2:2">
-      <c r="B31" s="40"/>
+      <c r="B31" s="41"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:6">
       <c r="A32" s="21" t="s">
@@ -18028,7 +18126,7 @@
       <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="40">
         <v>399</v>
       </c>
       <c r="F5" s="16">
@@ -18050,7 +18148,7 @@
       <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="40">
         <v>375</v>
       </c>
       <c r="F6" s="16">
@@ -18072,7 +18170,7 @@
       <c r="D7" s="15">
         <v>1</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="40">
         <v>399</v>
       </c>
       <c r="F7" s="16">
@@ -18094,7 +18192,7 @@
       <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="40">
         <v>389</v>
       </c>
       <c r="F8" s="16">
@@ -18116,7 +18214,7 @@
       <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="40">
         <v>401.8</v>
       </c>
       <c r="F9" s="16">
@@ -18138,7 +18236,7 @@
       <c r="D10" s="15">
         <v>1</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="40">
         <v>400</v>
       </c>
       <c r="F10" s="16">
@@ -18160,7 +18258,7 @@
       <c r="D11" s="15">
         <v>1</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="40">
         <v>413.2</v>
       </c>
       <c r="F11" s="16">
@@ -18182,7 +18280,7 @@
       <c r="D12" s="15">
         <v>1</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="40">
         <v>401.8</v>
       </c>
       <c r="F12" s="16">
@@ -18204,7 +18302,7 @@
       <c r="D13" s="15">
         <v>1</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="40">
         <v>407</v>
       </c>
       <c r="F13" s="16">
@@ -18226,7 +18324,7 @@
       <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="40">
         <v>368</v>
       </c>
       <c r="F14" s="16">
@@ -18248,7 +18346,7 @@
       <c r="D15" s="15">
         <v>1</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="40">
         <v>403.2</v>
       </c>
       <c r="F15" s="16">
@@ -18270,7 +18368,7 @@
       <c r="D16" s="15">
         <v>1</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="40">
         <v>413.2</v>
       </c>
       <c r="F16" s="16">
@@ -18292,7 +18390,7 @@
       <c r="D17" s="15">
         <v>1</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="40">
         <v>535.1</v>
       </c>
       <c r="F17" s="16">
@@ -18314,7 +18412,7 @@
       <c r="D18" s="15">
         <v>2</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="40">
         <v>529.6</v>
       </c>
       <c r="F18" s="16">
@@ -18336,7 +18434,7 @@
       <c r="D19" s="15">
         <v>1</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="40">
         <v>540</v>
       </c>
       <c r="F19" s="16">
@@ -18358,7 +18456,7 @@
       <c r="D20" s="15">
         <v>1</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="40">
         <v>543.8</v>
       </c>
       <c r="F20" s="16">
@@ -18380,7 +18478,7 @@
       <c r="D21" s="15">
         <v>2</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="40">
         <v>538</v>
       </c>
       <c r="F21" s="16">
@@ -18424,7 +18522,7 @@
       <c r="D23" s="15">
         <v>1</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="40">
         <v>544</v>
       </c>
       <c r="F23" s="16">
@@ -18446,7 +18544,7 @@
       <c r="D24" s="15">
         <v>1</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="40">
         <v>530</v>
       </c>
       <c r="F24" s="16">
@@ -19814,19 +19912,19 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="36">
         <v>2</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="36">
         <v>27824</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="37">
         <f>E5</f>
         <v>27824</v>
       </c>
@@ -19836,11 +19934,11 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7" ht="21.95" customHeight="1" spans="1:7">
@@ -20235,7 +20333,7 @@
       <c r="D5" s="15">
         <v>84</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="35">
         <v>2.3</v>
       </c>
       <c r="F5" s="18">

--- a/入库日报表.xlsx
+++ b/入库日报表.xlsx
@@ -1406,6 +1406,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1415,28 +1459,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1449,54 +1472,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1513,7 +1490,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1525,8 +1502,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1540,13 +1533,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1555,24 +1541,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1587,7 +1581,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1595,37 +1597,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1638,9 +1639,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1663,7 +1663,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,7 +1807,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399914548173467"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,43 +1873,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="6" tint="0.799768059327982"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399792474135563"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399792474135563"/>
+        <fgColor theme="6" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1735,373 +1951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,7 +1963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799798577837458"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2125,25 +1975,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399853511154515"/>
+        <fgColor theme="6" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2155,7 +1999,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2167,79 +2035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2269,13 +2071,211 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799768059327982"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2366,8 +2366,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399945066682943"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2375,8 +2390,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2398,65 +2454,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2474,7 +2474,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2483,16 +2483,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399792474135563"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.399853511154515"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2510,6 +2501,24 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.399761955626087"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399792474135563"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.399822992645039"/>
       </bottom>
       <diagonal/>
@@ -2518,17 +2527,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399853511154515"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399761955626087"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2540,1277 +2540,1277 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3886,13 +3886,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3902,6 +3896,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3941,14 +3938,14 @@
   <cellStyles count="425">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="链接单元格 3 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
-    <cellStyle name="输出 3" xfId="5"/>
-    <cellStyle name="输入" xfId="6" builtinId="20"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="7"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="9"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="3"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="5"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="输出 3" xfId="7"/>
+    <cellStyle name="链接单元格 3 2" xfId="8"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="9"/>
     <cellStyle name="千位分隔[0]" xfId="10" builtinId="6"/>
     <cellStyle name="60% - 强调文字颜色 1 3 5" xfId="11"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
@@ -3962,19 +3959,19 @@
     <cellStyle name="百分比" xfId="20" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="23"/>
-    <cellStyle name="注释" xfId="24" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="26"/>
-    <cellStyle name="标题 4" xfId="27" builtinId="19"/>
-    <cellStyle name="解释性文本 2 2" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="29"/>
-    <cellStyle name="警告文本" xfId="30" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="31"/>
+    <cellStyle name="注释" xfId="23" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="25"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="26"/>
+    <cellStyle name="警告文本" xfId="27" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="28"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="解释性文本 2 2" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="31"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 1 2 3" xfId="33"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="33"/>
     <cellStyle name="常规 5 2" xfId="34"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="35"/>
+    <cellStyle name="强调文字颜色 1 2 3" xfId="35"/>
     <cellStyle name="标题" xfId="36" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="37" builtinId="53"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="38"/>
@@ -3988,28 +3985,28 @@
     <cellStyle name="输出" xfId="46" builtinId="21"/>
     <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="47"/>
     <cellStyle name="计算" xfId="48" builtinId="22"/>
-    <cellStyle name="计算 3 2" xfId="49"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="49"/>
+    <cellStyle name="计算 3 2" xfId="50"/>
     <cellStyle name="检查单元格" xfId="51" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="52" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="53" builtinId="33"/>
     <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="54"/>
     <cellStyle name="链接单元格" xfId="55" builtinId="24"/>
-    <cellStyle name="强调文字颜色 3 2 4" xfId="56"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="57"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="56"/>
+    <cellStyle name="强调文字颜色 3 2 4" xfId="57"/>
     <cellStyle name="汇总" xfId="58" builtinId="25"/>
     <cellStyle name="差 3 4" xfId="59"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="输出 3 3" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="62"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="61"/>
+    <cellStyle name="输出 3 3" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="检查单元格 3 2" xfId="65"/>
     <cellStyle name="强调文字颜色 1" xfId="66" builtinId="29"/>
     <cellStyle name="链接单元格 3" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="68" builtinId="30"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="69"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="70"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="69"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="70"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="71" builtinId="31"/>
     <cellStyle name="输出 2" xfId="72"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="73" builtinId="34"/>
@@ -4024,83 +4021,83 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="85"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="86"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="85"/>
+    <cellStyle name="适中 2" xfId="86"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="87" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="88" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 1 2 7" xfId="89"/>
     <cellStyle name="20% - 强调文字颜色 1 3 7" xfId="90"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="92"/>
-    <cellStyle name="链接单元格 3 3" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="94"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="91"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="92"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="93"/>
+    <cellStyle name="链接单元格 3 3" xfId="94"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="95"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="96"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="97"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="97"/>
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
     <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="99"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="100"/>
-    <cellStyle name="计算 2 2" xfId="101"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="101"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="103"/>
-    <cellStyle name="计算 2 3" xfId="104"/>
+    <cellStyle name="计算 2 2" xfId="103"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="104"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="106"/>
+    <cellStyle name="计算 2 3" xfId="106"/>
     <cellStyle name="20% - 强调文字颜色 1 3 6" xfId="107"/>
-    <cellStyle name="输出 2 2" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="108"/>
     <cellStyle name="20% - 强调文字颜色 3 2 7" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="110"/>
+    <cellStyle name="输出 2 2" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="114"/>
     <cellStyle name="20% - 强调文字颜色 2 2 7" xfId="115"/>
-    <cellStyle name="输出 2 3" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="116"/>
+    <cellStyle name="输出 2 3" xfId="117"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="119"/>
-    <cellStyle name="常规 2 2 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="120"/>
+    <cellStyle name="常规 2 2 2" xfId="121"/>
     <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="122"/>
     <cellStyle name="20% - 强调文字颜色 2 3 7" xfId="123"/>
-    <cellStyle name="输出 3 2" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 3 3 7" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="126"/>
+    <cellStyle name="输出 3 2" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="131"/>
-    <cellStyle name="适中 3" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="133"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="132"/>
+    <cellStyle name="适中 3" xfId="133"/>
     <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="134"/>
     <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="135"/>
     <cellStyle name="20% - 强调文字颜色 3 3 6" xfId="136"/>
-    <cellStyle name="常规 3" xfId="137"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="137"/>
     <cellStyle name="60% - 强调文字颜色 1 2 7" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="139"/>
-    <cellStyle name="常规 3 2" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="141"/>
+    <cellStyle name="常规 3" xfId="139"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="140"/>
+    <cellStyle name="常规 3 2" xfId="141"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="142"/>
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="143"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="145"/>
-    <cellStyle name="强调文字颜色 5 3" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="144"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="146"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 4 2 7" xfId="148"/>
-    <cellStyle name="常规 4" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="150"/>
-    <cellStyle name="常规 4 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="149"/>
+    <cellStyle name="常规 4" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="151"/>
+    <cellStyle name="常规 4 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="153"/>
     <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="154"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="156"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="158"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="155"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="157"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 3 7" xfId="159"/>
-    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="160"/>
+    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="161"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="164"/>
@@ -4109,177 +4106,177 @@
     <cellStyle name="20% - 强调文字颜色 5 2 7" xfId="167"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="169"/>
-    <cellStyle name="解释性文本 2 3" xfId="170"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="170"/>
     <cellStyle name="标题 5" xfId="171"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="172"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="174"/>
+    <cellStyle name="解释性文本 2 3" xfId="172"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="173"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="175"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 6 2 7" xfId="180"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="182"/>
-    <cellStyle name="好 2 5" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="184"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="181"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="182"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="183"/>
+    <cellStyle name="好 2 5" xfId="184"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="185"/>
-    <cellStyle name="注释 2 2" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="187"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="186"/>
+    <cellStyle name="注释 2 2" xfId="187"/>
     <cellStyle name="20% - 强调文字颜色 6 3 6" xfId="188"/>
     <cellStyle name="20% - 强调文字颜色 6 3 7" xfId="189"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="190"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="191"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="192"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="191"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="192"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="193"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="195"/>
-    <cellStyle name="解释性文本 3 3" xfId="196"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="194"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="195"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="196"/>
     <cellStyle name="60% - 强调文字颜色 3 2 7" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="198"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="200"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
+    <cellStyle name="解释性文本 3 3" xfId="198"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="199"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="200"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="201"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="202"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="203"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="204"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="205"/>
-    <cellStyle name="检查单元格 2" xfId="206"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="204"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="206"/>
     <cellStyle name="60% - 强调文字颜色 5 2 7" xfId="207"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="208"/>
-    <cellStyle name="检查单元格 3" xfId="209"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="210"/>
-    <cellStyle name="计算 3 3" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="212"/>
-    <cellStyle name="好 2 3" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="214"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="215"/>
+    <cellStyle name="检查单元格 2" xfId="208"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="209"/>
+    <cellStyle name="检查单元格 3" xfId="210"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="211"/>
+    <cellStyle name="计算 3 3" xfId="212"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="213"/>
+    <cellStyle name="好 2 3" xfId="214"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
     <cellStyle name="60% - 强调文字颜色 4 3" xfId="216"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="217"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="217"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="好 2 4" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="220"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="219"/>
+    <cellStyle name="好 2 4" xfId="220"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="221"/>
     <cellStyle name="60% - 强调文字颜色 5 3" xfId="222"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="223"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="224"/>
-    <cellStyle name="适中 2 2" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="225"/>
     <cellStyle name="好 3 3" xfId="226"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="227"/>
+    <cellStyle name="适中 2 2" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="229"/>
-    <cellStyle name="适中 2 3" xfId="230"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="231"/>
-    <cellStyle name="好 3 4" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="233"/>
-    <cellStyle name="解释性文本 3" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="230"/>
+    <cellStyle name="好 3 4" xfId="231"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="232"/>
+    <cellStyle name="适中 2 3" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="234"/>
+    <cellStyle name="解释性文本 3" xfId="235"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="236"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="237"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="238"/>
     <cellStyle name="60% - 强调文字颜色 1 2 3" xfId="239"/>
     <cellStyle name="60% - 强调文字颜色 1 2 4" xfId="240"/>
     <cellStyle name="60% - 强调文字颜色 1 2 5" xfId="241"/>
-    <cellStyle name="常规 2" xfId="242"/>
-    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="243"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="242"/>
+    <cellStyle name="常规 2" xfId="243"/>
     <cellStyle name="60% - 强调文字颜色 1 3" xfId="244"/>
     <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="245"/>
     <cellStyle name="60% - 强调文字颜色 1 3 3" xfId="246"/>
     <cellStyle name="60% - 强调文字颜色 1 3 4" xfId="247"/>
     <cellStyle name="60% - 强调文字颜色 1 3 6" xfId="248"/>
-    <cellStyle name="常规 5" xfId="249"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="250"/>
-    <cellStyle name="强调文字颜色 1 2 4" xfId="251"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="252"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="249"/>
+    <cellStyle name="常规 5" xfId="250"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="251"/>
+    <cellStyle name="强调文字颜色 1 2 4" xfId="252"/>
     <cellStyle name="60% - 强调文字颜色 2 2 4" xfId="253"/>
     <cellStyle name="60% - 强调文字颜色 2 2 5" xfId="254"/>
     <cellStyle name="60% - 强调文字颜色 2 2 6" xfId="255"/>
-    <cellStyle name="注释 2" xfId="256"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="256"/>
     <cellStyle name="强调文字颜色 1 3 3" xfId="257"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="258"/>
-    <cellStyle name="注释 3" xfId="259"/>
+    <cellStyle name="注释 2" xfId="258"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="259"/>
     <cellStyle name="强调文字颜色 1 3 4" xfId="260"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="261"/>
+    <cellStyle name="注释 3" xfId="261"/>
     <cellStyle name="60% - 强调文字颜色 2 3 4" xfId="262"/>
     <cellStyle name="60% - 强调文字颜色 2 3 6" xfId="263"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="264"/>
-    <cellStyle name="强调文字颜色 2 2 3" xfId="265"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="266"/>
-    <cellStyle name="强调文字颜色 2 2 4" xfId="267"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="268"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="265"/>
+    <cellStyle name="强调文字颜色 2 2 3" xfId="266"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="267"/>
+    <cellStyle name="强调文字颜色 2 2 4" xfId="268"/>
     <cellStyle name="60% - 强调文字颜色 3 2 4" xfId="269"/>
     <cellStyle name="60% - 强调文字颜色 3 2 5" xfId="270"/>
-    <cellStyle name="解释性文本 3 2" xfId="271"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="272"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="271"/>
+    <cellStyle name="解释性文本 3 2" xfId="272"/>
     <cellStyle name="60% - 强调文字颜色 3 3" xfId="273"/>
-    <cellStyle name="强调文字颜色 2 3 3" xfId="274"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="275"/>
-    <cellStyle name="强调文字颜色 2 3 4" xfId="276"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="277"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="274"/>
+    <cellStyle name="强调文字颜色 2 3 3" xfId="275"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="276"/>
+    <cellStyle name="强调文字颜色 2 3 4" xfId="277"/>
     <cellStyle name="60% - 强调文字颜色 3 3 4" xfId="278"/>
     <cellStyle name="60% - 强调文字颜色 3 3 5" xfId="279"/>
     <cellStyle name="60% - 强调文字颜色 3 3 6" xfId="280"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="281"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="282"/>
-    <cellStyle name="适中 2 4" xfId="283"/>
-    <cellStyle name="强调文字颜色 3 2 3" xfId="284"/>
-    <cellStyle name="好 3 5" xfId="285"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="286"/>
-    <cellStyle name="注释 3 2" xfId="287"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="288"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="281"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="282"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="283"/>
+    <cellStyle name="好 3 5" xfId="284"/>
+    <cellStyle name="强调文字颜色 3 2 3" xfId="285"/>
+    <cellStyle name="适中 2 4" xfId="286"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="287"/>
+    <cellStyle name="注释 3 2" xfId="288"/>
     <cellStyle name="60% - 强调文字颜色 4 2 5" xfId="289"/>
     <cellStyle name="60% - 强调文字颜色 4 2 6" xfId="290"/>
-    <cellStyle name="适中 3 4" xfId="291"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="291"/>
     <cellStyle name="强调文字颜色 3 3 3" xfId="292"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="293"/>
-    <cellStyle name="强调文字颜色 3 3 4" xfId="294"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="295"/>
+    <cellStyle name="适中 3 4" xfId="293"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="294"/>
+    <cellStyle name="强调文字颜色 3 3 4" xfId="295"/>
     <cellStyle name="60% - 强调文字颜色 4 3 4" xfId="296"/>
     <cellStyle name="60% - 强调文字颜色 4 3 5" xfId="297"/>
     <cellStyle name="60% - 强调文字颜色 4 3 6" xfId="298"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="299"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="300"/>
-    <cellStyle name="强调文字颜色 4 2 3" xfId="301"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="299"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="300"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="301"/>
     <cellStyle name="标题 3 2 6" xfId="302"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="303"/>
-    <cellStyle name="强调文字颜色 4 2 4" xfId="304"/>
+    <cellStyle name="强调文字颜色 4 2 3" xfId="303"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="304"/>
     <cellStyle name="标题 3 2 7" xfId="305"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="306"/>
+    <cellStyle name="强调文字颜色 4 2 4" xfId="306"/>
     <cellStyle name="60% - 强调文字颜色 5 2 4" xfId="307"/>
-    <cellStyle name="标题 4 2" xfId="308"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="309"/>
-    <cellStyle name="汇总 2 2" xfId="310"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="308"/>
+    <cellStyle name="标题 4 2" xfId="309"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="310"/>
     <cellStyle name="标题 4 3" xfId="311"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="312"/>
-    <cellStyle name="强调文字颜色 4 3 3" xfId="313"/>
+    <cellStyle name="汇总 2 2" xfId="312"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="313"/>
     <cellStyle name="标题 3 3 6" xfId="314"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="315"/>
-    <cellStyle name="强调文字颜色 4 3 4" xfId="316"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="317"/>
-    <cellStyle name="标题 3 3 7" xfId="318"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="319"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="320"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="321"/>
-    <cellStyle name="标题 5 2" xfId="322"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="323"/>
-    <cellStyle name="汇总 3 2" xfId="324"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="325"/>
+    <cellStyle name="强调文字颜色 4 3 3" xfId="315"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="316"/>
+    <cellStyle name="标题 3 3 7" xfId="317"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="318"/>
+    <cellStyle name="强调文字颜色 4 3 4" xfId="319"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="320"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="321"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="322"/>
+    <cellStyle name="标题 5 2" xfId="323"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="324"/>
+    <cellStyle name="汇总 3 2" xfId="325"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="326"/>
-    <cellStyle name="强调文字颜色 5 2 3" xfId="327"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="328"/>
-    <cellStyle name="强调文字颜色 5 2 4" xfId="329"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="330"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="327"/>
+    <cellStyle name="强调文字颜色 5 2 3" xfId="328"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="329"/>
+    <cellStyle name="强调文字颜色 5 2 4" xfId="330"/>
     <cellStyle name="60% - 强调文字颜色 6 3" xfId="331"/>
-    <cellStyle name="强调文字颜色 5 3 4" xfId="332"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="333"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="332"/>
+    <cellStyle name="强调文字颜色 5 3 4" xfId="333"/>
     <cellStyle name="60% - 强调文字颜色 6 3 4" xfId="334"/>
     <cellStyle name="60% - 强调文字颜色 6 3 5" xfId="335"/>
     <cellStyle name="标题 1 2" xfId="336"/>
     <cellStyle name="标题 1 2 2" xfId="337"/>
     <cellStyle name="标题 1 3" xfId="338"/>
-    <cellStyle name="汇总 3" xfId="339"/>
-    <cellStyle name="标题 1 3 2" xfId="340"/>
+    <cellStyle name="标题 1 3 2" xfId="339"/>
+    <cellStyle name="汇总 3" xfId="340"/>
     <cellStyle name="标题 2 2" xfId="341"/>
     <cellStyle name="标题 2 2 2" xfId="342"/>
     <cellStyle name="标题 2 3" xfId="343"/>
@@ -4288,18 +4285,18 @@
     <cellStyle name="标题 3 2 2" xfId="346"/>
     <cellStyle name="标题 3 2 3" xfId="347"/>
     <cellStyle name="标题 3 2 4" xfId="348"/>
-    <cellStyle name="强调文字颜色 4 2 2" xfId="349"/>
-    <cellStyle name="标题 3 2 5" xfId="350"/>
+    <cellStyle name="标题 3 2 5" xfId="349"/>
+    <cellStyle name="强调文字颜色 4 2 2" xfId="350"/>
     <cellStyle name="标题 3 3" xfId="351"/>
     <cellStyle name="标题 3 3 2" xfId="352"/>
     <cellStyle name="标题 3 3 3" xfId="353"/>
     <cellStyle name="标题 3 3 4" xfId="354"/>
-    <cellStyle name="强调文字颜色 4 3 2" xfId="355"/>
-    <cellStyle name="标题 3 3 5" xfId="356"/>
+    <cellStyle name="标题 3 3 5" xfId="355"/>
+    <cellStyle name="强调文字颜色 4 3 2" xfId="356"/>
     <cellStyle name="标题 4 2 2" xfId="357"/>
     <cellStyle name="标题 4 3 2" xfId="358"/>
-    <cellStyle name="解释性文本 2 4" xfId="359"/>
-    <cellStyle name="标题 6" xfId="360"/>
+    <cellStyle name="标题 6" xfId="359"/>
+    <cellStyle name="解释性文本 2 4" xfId="360"/>
     <cellStyle name="标题 6 2" xfId="361"/>
     <cellStyle name="差 2" xfId="362"/>
     <cellStyle name="差 2 2" xfId="363"/>
@@ -4311,11 +4308,11 @@
     <cellStyle name="差 3 3" xfId="369"/>
     <cellStyle name="差 3 5" xfId="370"/>
     <cellStyle name="常规 2 2" xfId="371"/>
-    <cellStyle name="输入 3 2" xfId="372"/>
-    <cellStyle name="常规 2 3" xfId="373"/>
+    <cellStyle name="常规 2 3" xfId="372"/>
+    <cellStyle name="输入 3 2" xfId="373"/>
     <cellStyle name="常规 2 3 2" xfId="374"/>
-    <cellStyle name="输入 3 3" xfId="375"/>
-    <cellStyle name="常规 2 4" xfId="376"/>
+    <cellStyle name="常规 2 4" xfId="375"/>
+    <cellStyle name="输入 3 3" xfId="376"/>
     <cellStyle name="常规 7" xfId="377"/>
     <cellStyle name="好 2" xfId="378"/>
     <cellStyle name="好 2 2" xfId="379"/>
@@ -4341,16 +4338,16 @@
     <cellStyle name="强调文字颜色 2 2" xfId="399"/>
     <cellStyle name="强调文字颜色 2 2 2" xfId="400"/>
     <cellStyle name="强调文字颜色 2 3" xfId="401"/>
-    <cellStyle name="输入 2 4" xfId="402"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="403"/>
-    <cellStyle name="输入 2 5" xfId="404"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="405"/>
-    <cellStyle name="适中 3 3" xfId="406"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="407"/>
-    <cellStyle name="输入 3 4" xfId="408"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="409"/>
-    <cellStyle name="输入 3 5" xfId="410"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="411"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="402"/>
+    <cellStyle name="输入 2 4" xfId="403"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="404"/>
+    <cellStyle name="输入 2 5" xfId="405"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="406"/>
+    <cellStyle name="适中 3 3" xfId="407"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="408"/>
+    <cellStyle name="输入 3 4" xfId="409"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="410"/>
+    <cellStyle name="输入 3 5" xfId="411"/>
     <cellStyle name="强调文字颜色 5 2 2" xfId="412"/>
     <cellStyle name="强调文字颜色 5 3 2" xfId="413"/>
     <cellStyle name="强调文字颜色 6 2 2" xfId="414"/>
@@ -6473,7 +6470,7 @@
       <c r="C5" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <v>1</v>
       </c>
       <c r="E5" s="17">
@@ -6495,7 +6492,7 @@
       <c r="C6" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>9</v>
       </c>
       <c r="E6" s="17">
@@ -6517,7 +6514,7 @@
       <c r="C7" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <v>1</v>
       </c>
       <c r="E7" s="17">
@@ -6539,7 +6536,7 @@
       <c r="C8" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <v>1</v>
       </c>
       <c r="E8" s="17">
@@ -6561,7 +6558,7 @@
       <c r="C9" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <v>4</v>
       </c>
       <c r="E9" s="17">
@@ -6583,7 +6580,7 @@
       <c r="C10" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>16</v>
       </c>
       <c r="E10" s="17">
@@ -6605,7 +6602,7 @@
       <c r="C11" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <v>2</v>
       </c>
       <c r="E11" s="17">
@@ -6627,7 +6624,7 @@
       <c r="C12" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="33">
         <v>8</v>
       </c>
       <c r="E12" s="17">
@@ -6950,7 +6947,7 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>233</v>
       </c>
       <c r="C5" s="17"/>
@@ -6970,7 +6967,7 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>234</v>
       </c>
       <c r="C6" s="17"/>
@@ -6990,7 +6987,7 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>131</v>
       </c>
       <c r="C7" s="17"/>
@@ -7010,7 +7007,7 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>235</v>
       </c>
       <c r="C8" s="17"/>
@@ -7030,7 +7027,7 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="29" t="s">
         <v>236</v>
       </c>
       <c r="C9" s="17"/>
@@ -7050,7 +7047,7 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="29" t="s">
         <v>237</v>
       </c>
       <c r="C10" s="17"/>
@@ -7070,7 +7067,7 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="29" t="s">
         <v>238</v>
       </c>
       <c r="C11" s="17"/>
@@ -7090,7 +7087,7 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="29" t="s">
         <v>239</v>
       </c>
       <c r="C12" s="17"/>
@@ -7110,7 +7107,7 @@
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="29" t="s">
         <v>240</v>
       </c>
       <c r="C13" s="17"/>
@@ -7130,7 +7127,7 @@
       <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>241</v>
       </c>
       <c r="C14" s="17"/>
@@ -7150,7 +7147,7 @@
       <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="29" t="s">
         <v>242</v>
       </c>
       <c r="C15" s="17"/>
@@ -7170,7 +7167,7 @@
       <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="29" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="17"/>
@@ -7190,7 +7187,7 @@
       <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="29" t="s">
         <v>244</v>
       </c>
       <c r="C17" s="17"/>
@@ -7210,7 +7207,7 @@
       <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C18" s="17"/>
@@ -7230,7 +7227,7 @@
       <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="29" t="s">
         <v>246</v>
       </c>
       <c r="C19" s="17"/>
@@ -7250,7 +7247,7 @@
       <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="29" t="s">
         <v>247</v>
       </c>
       <c r="C20" s="17"/>
@@ -7270,7 +7267,7 @@
       <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="29" t="s">
         <v>248</v>
       </c>
       <c r="C21" s="17"/>
@@ -7290,7 +7287,7 @@
       <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="29" t="s">
         <v>249</v>
       </c>
       <c r="C22" s="17"/>
@@ -7310,7 +7307,7 @@
       <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="29" t="s">
         <v>250</v>
       </c>
       <c r="C23" s="17"/>
@@ -7650,7 +7647,7 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="34"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="11"/>
@@ -7661,7 +7658,7 @@
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="34"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="11"/>
@@ -8631,7 +8628,7 @@
       <c r="C5" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="32">
         <v>5</v>
       </c>
       <c r="E5" s="15">
@@ -8653,7 +8650,7 @@
       <c r="C6" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>284</v>
       </c>
       <c r="E6" s="15">
@@ -8675,7 +8672,7 @@
       <c r="C7" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="32">
         <v>3</v>
       </c>
       <c r="E7" s="15">
@@ -8697,7 +8694,7 @@
       <c r="C8" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>287</v>
       </c>
       <c r="E8" s="15">
@@ -8719,7 +8716,7 @@
       <c r="C9" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="32">
         <v>1</v>
       </c>
       <c r="E9" s="15">
@@ -10086,7 +10083,7 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>306</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -10108,7 +10105,7 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>307</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -10130,7 +10127,7 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>308</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -10152,7 +10149,7 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>309</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -10174,7 +10171,7 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="29" t="s">
         <v>310</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -10196,7 +10193,7 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="29" t="s">
         <v>311</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -10218,7 +10215,7 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="29" t="s">
         <v>312</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -10240,7 +10237,7 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="29" t="s">
         <v>313</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -10262,7 +10259,7 @@
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="29" t="s">
         <v>314</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -10284,7 +10281,7 @@
       <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>315</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -10306,7 +10303,7 @@
       <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="29" t="s">
         <v>316</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -10328,7 +10325,7 @@
       <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="29" t="s">
         <v>317</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -10350,7 +10347,7 @@
       <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="29" t="s">
         <v>318</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -10372,7 +10369,7 @@
       <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="29" t="s">
         <v>319</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -10394,7 +10391,7 @@
       <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="29" t="s">
         <v>320</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -10416,7 +10413,7 @@
       <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="29" t="s">
         <v>321</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -10438,7 +10435,7 @@
       <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="29" t="s">
         <v>322</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -10460,7 +10457,7 @@
       <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="29" t="s">
         <v>323</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -10482,7 +10479,7 @@
       <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="29" t="s">
         <v>324</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -10504,7 +10501,7 @@
       <c r="A24" s="11">
         <v>20</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="29" t="s">
         <v>325</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -10526,7 +10523,7 @@
       <c r="A25" s="11">
         <v>21</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="29" t="s">
         <v>326</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -10548,7 +10545,7 @@
       <c r="A26" s="11">
         <v>22</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="29" t="s">
         <v>327</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -10570,7 +10567,7 @@
       <c r="A27" s="11">
         <v>23</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="29" t="s">
         <v>328</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -10592,7 +10589,7 @@
       <c r="A28" s="11">
         <v>24</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="29" t="s">
         <v>329</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -10614,7 +10611,7 @@
       <c r="A29" s="11">
         <v>25</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>330</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -10636,7 +10633,7 @@
       <c r="A30" s="11">
         <v>26</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="29" t="s">
         <v>212</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -10658,7 +10655,7 @@
       <c r="A31" s="11">
         <v>27</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="29" t="s">
         <v>293</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -10680,7 +10677,7 @@
       <c r="A32" s="11">
         <v>28</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="29" t="s">
         <v>290</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -10702,7 +10699,7 @@
       <c r="A33" s="11">
         <v>29</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="29" t="s">
         <v>289</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -10724,7 +10721,7 @@
       <c r="A34" s="11">
         <v>30</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="29" t="s">
         <v>294</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -10746,7 +10743,7 @@
       <c r="A35" s="11">
         <v>31</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="29" t="s">
         <v>295</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -10768,7 +10765,7 @@
       <c r="A36" s="11">
         <v>32</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="29" t="s">
         <v>291</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -10790,7 +10787,7 @@
       <c r="A37" s="11">
         <v>33</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="29" t="s">
         <v>292</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -10812,7 +10809,7 @@
       <c r="A38" s="11">
         <v>34</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="29" t="s">
         <v>331</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -10834,7 +10831,7 @@
       <c r="A39" s="11">
         <v>35</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="29" t="s">
         <v>332</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -10976,16 +10973,16 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>3</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>7050</v>
       </c>
       <c r="F5" s="14"/>
@@ -10995,16 +10992,16 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="32">
-        <v>1</v>
-      </c>
-      <c r="E6" s="32">
+      <c r="D6" s="31">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31">
         <v>2394</v>
       </c>
       <c r="F6" s="14"/>
@@ -11014,16 +11011,16 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D7" s="32">
-        <v>1</v>
-      </c>
-      <c r="E7" s="32">
+      <c r="D7" s="31">
+        <v>1</v>
+      </c>
+      <c r="E7" s="31">
         <v>2394</v>
       </c>
       <c r="F7" s="14"/>
@@ -11033,16 +11030,16 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D8" s="32">
-        <v>1</v>
-      </c>
-      <c r="E8" s="32">
+      <c r="D8" s="31">
+        <v>1</v>
+      </c>
+      <c r="E8" s="31">
         <v>2398</v>
       </c>
       <c r="F8" s="14"/>
@@ -11052,16 +11049,16 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D9" s="32">
-        <v>1</v>
-      </c>
-      <c r="E9" s="32">
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" s="31">
         <v>2406</v>
       </c>
       <c r="F9" s="14"/>
@@ -11071,16 +11068,16 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="32">
-        <v>1</v>
-      </c>
-      <c r="E10" s="32">
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="31">
         <v>2342</v>
       </c>
       <c r="F10" s="14"/>
@@ -11090,16 +11087,16 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <v>2</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <v>4646</v>
       </c>
       <c r="F11" s="14"/>
@@ -11109,16 +11106,16 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D12" s="32">
-        <v>1</v>
-      </c>
-      <c r="E12" s="32">
+      <c r="D12" s="31">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31">
         <v>2340</v>
       </c>
       <c r="F12" s="14"/>
@@ -11844,16 +11841,16 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="31">
-        <v>1</v>
-      </c>
-      <c r="E5" s="27">
+      <c r="D5" s="30">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
         <v>2867.172</v>
       </c>
       <c r="F5" s="17">
@@ -11866,16 +11863,16 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="31">
-        <v>1</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
         <v>3342.427</v>
       </c>
       <c r="F6" s="17">
@@ -11888,16 +11885,16 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <v>2</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>3621.561</v>
       </c>
       <c r="F7" s="17">
@@ -11910,16 +11907,16 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <v>4</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>3768.041</v>
       </c>
       <c r="F8" s="17">
@@ -11932,16 +11929,16 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="31">
-        <v>1</v>
-      </c>
-      <c r="E9" s="27">
+      <c r="D9" s="30">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
         <v>2261.456</v>
       </c>
       <c r="F9" s="17">
@@ -11954,16 +11951,16 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <v>2</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <v>4374.868</v>
       </c>
       <c r="F10" s="17">
@@ -12305,10 +12302,10 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D5" s="17">
@@ -12327,16 +12324,16 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>2660.4</v>
       </c>
       <c r="F6" s="17">
@@ -12349,16 +12346,16 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>350</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>889.3</v>
       </c>
       <c r="F7" s="17">
@@ -12371,16 +12368,16 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>350</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>892.5</v>
       </c>
       <c r="F8" s="17">
@@ -12393,10 +12390,10 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>350</v>
       </c>
       <c r="D9" s="17">
@@ -12755,16 +12752,16 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>350</v>
       </c>
       <c r="D5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <f>F5/D5</f>
         <v>870</v>
       </c>
@@ -12777,16 +12774,16 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>350</v>
       </c>
       <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>882</v>
       </c>
       <c r="F6" s="17">
@@ -12799,16 +12796,16 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>350</v>
       </c>
       <c r="D7" s="16">
         <v>4</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <f>F7/D7</f>
         <v>871</v>
       </c>
@@ -12821,16 +12818,16 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>350</v>
       </c>
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>878</v>
       </c>
       <c r="F8" s="17">
@@ -12843,16 +12840,16 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>350</v>
       </c>
       <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>870</v>
       </c>
       <c r="F9" s="17">
@@ -12865,16 +12862,16 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>350</v>
       </c>
       <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <v>880</v>
       </c>
       <c r="F10" s="17">
@@ -12887,16 +12884,16 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>350</v>
       </c>
       <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>880</v>
       </c>
       <c r="F11" s="17">
@@ -12909,16 +12906,16 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>350</v>
       </c>
       <c r="D12" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <v>880</v>
       </c>
       <c r="F12" s="17">
@@ -13238,13 +13235,13 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>3</v>
       </c>
       <c r="E5" s="17">
@@ -13259,13 +13256,13 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <v>1</v>
       </c>
       <c r="E6" s="17">
@@ -13281,13 +13278,13 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <v>1</v>
       </c>
       <c r="E7" s="17">
@@ -13303,13 +13300,13 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <v>1</v>
       </c>
       <c r="E8" s="17">
@@ -13325,13 +13322,13 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <v>1</v>
       </c>
       <c r="E9" s="17">
@@ -13347,13 +13344,13 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <v>1</v>
       </c>
       <c r="E10" s="17">
@@ -13369,13 +13366,13 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <v>1</v>
       </c>
       <c r="E11" s="17">
@@ -13391,13 +13388,13 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <v>1</v>
       </c>
       <c r="E12" s="17">
@@ -13413,13 +13410,13 @@
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <v>1</v>
       </c>
       <c r="E13" s="17">
@@ -13435,13 +13432,13 @@
       <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="25">
         <v>1</v>
       </c>
       <c r="E14" s="17">
@@ -13742,16 +13739,16 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>1599.9</v>
       </c>
       <c r="F5" s="17">
@@ -13764,16 +13761,16 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>1588.3</v>
       </c>
       <c r="F6" s="17">
@@ -13786,16 +13783,16 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>1599.9</v>
       </c>
       <c r="F7" s="17">
@@ -13808,16 +13805,16 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>1252</v>
       </c>
       <c r="F8" s="17">
@@ -13830,16 +13827,16 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>1252</v>
       </c>
       <c r="F9" s="17">
@@ -13852,16 +13849,16 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <v>1247.5</v>
       </c>
       <c r="F10" s="17">
@@ -13874,16 +13871,16 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>1214.4</v>
       </c>
       <c r="F11" s="17">
@@ -14214,16 +14211,16 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>1588.3</v>
       </c>
       <c r="F5" s="17">
@@ -14239,7 +14236,7 @@
       <c r="B6" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>375</v>
       </c>
       <c r="D6" s="17">
@@ -14634,7 +14631,7 @@
       <c r="B5" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>375</v>
       </c>
       <c r="D5" s="16">
@@ -14655,7 +14652,7 @@
       <c r="B6" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>375</v>
       </c>
       <c r="D6" s="16">
@@ -14677,7 +14674,7 @@
       <c r="B7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>375</v>
       </c>
       <c r="D7" s="16">
@@ -14705,10 +14702,10 @@
       <c r="D8" s="16">
         <v>5</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="26">
         <v>5207.4</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="26">
         <v>5207.4</v>
       </c>
       <c r="G8" s="11"/>
@@ -14726,8 +14723,8 @@
       <c r="D9" s="16">
         <v>6</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" ht="21.95" customHeight="1" spans="1:7">
@@ -14743,8 +14740,8 @@
       <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" ht="21.95" customHeight="1" spans="1:7">
@@ -14760,8 +14757,8 @@
       <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" ht="21.95" customHeight="1" spans="1:7">
@@ -14777,8 +14774,8 @@
       <c r="D12" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" ht="21.95" customHeight="1" spans="1:7">
@@ -14794,8 +14791,8 @@
       <c r="D13" s="16">
         <v>1</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" ht="21.95" customHeight="1" spans="1:7">
@@ -14811,8 +14808,8 @@
       <c r="D14" s="16">
         <v>25</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" ht="21.95" customHeight="1" spans="1:7">
@@ -14828,8 +14825,8 @@
       <c r="D15" s="16">
         <v>9</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" ht="21.95" customHeight="1" spans="1:7">
@@ -14845,10 +14842,10 @@
       <c r="D16" s="16">
         <v>4</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="26">
         <v>526</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="26">
         <v>526</v>
       </c>
       <c r="G16" s="11"/>
@@ -14866,8 +14863,8 @@
       <c r="D17" s="16">
         <v>4</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" ht="21.95" customHeight="1" spans="1:7">
@@ -15130,7 +15127,7 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>390</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -15458,8 +15455,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -15544,7 +15541,9 @@
       <c r="D5" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="26">
+        <v>23982.9</v>
+      </c>
       <c r="F5" s="14"/>
       <c r="G5" s="11"/>
     </row>
@@ -15561,7 +15560,7 @@
       <c r="D6" s="16">
         <v>5</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="14"/>
       <c r="G6" s="11"/>
     </row>
@@ -15578,7 +15577,7 @@
       <c r="D7" s="16">
         <v>1</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="14"/>
       <c r="G7" s="11"/>
     </row>
@@ -15595,7 +15594,7 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="14"/>
       <c r="G8" s="11"/>
     </row>
@@ -15612,7 +15611,7 @@
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="14"/>
       <c r="G9" s="11"/>
     </row>
@@ -15629,7 +15628,7 @@
       <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="14"/>
       <c r="G10" s="11"/>
     </row>
@@ -15646,7 +15645,7 @@
       <c r="D11" s="16">
         <v>2</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="14"/>
       <c r="G11" s="11"/>
     </row>
@@ -15663,7 +15662,7 @@
       <c r="D12" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="14"/>
       <c r="G12" s="11"/>
     </row>
@@ -15680,7 +15679,7 @@
       <c r="D13" s="16">
         <v>1</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="14"/>
       <c r="G13" s="11"/>
     </row>
@@ -15889,12 +15888,13 @@
       <c r="F32" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E5:E13"/>
   </mergeCells>
   <pageMargins left="0.393055555555556" right="0.156944444444444" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -18006,7 +18006,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" ht="15" customHeight="1" spans="2:2">
-      <c r="B31" s="41"/>
+      <c r="B31" s="40"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:6">
       <c r="A32" s="21" t="s">
@@ -18126,7 +18126,7 @@
       <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <v>399</v>
       </c>
       <c r="F5" s="16">
@@ -18148,7 +18148,7 @@
       <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="39">
         <v>375</v>
       </c>
       <c r="F6" s="16">
@@ -18170,7 +18170,7 @@
       <c r="D7" s="15">
         <v>1</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="39">
         <v>399</v>
       </c>
       <c r="F7" s="16">
@@ -18192,7 +18192,7 @@
       <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="39">
         <v>389</v>
       </c>
       <c r="F8" s="16">
@@ -18214,7 +18214,7 @@
       <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="39">
         <v>401.8</v>
       </c>
       <c r="F9" s="16">
@@ -18236,7 +18236,7 @@
       <c r="D10" s="15">
         <v>1</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="39">
         <v>400</v>
       </c>
       <c r="F10" s="16">
@@ -18258,7 +18258,7 @@
       <c r="D11" s="15">
         <v>1</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="39">
         <v>413.2</v>
       </c>
       <c r="F11" s="16">
@@ -18280,7 +18280,7 @@
       <c r="D12" s="15">
         <v>1</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="39">
         <v>401.8</v>
       </c>
       <c r="F12" s="16">
@@ -18302,7 +18302,7 @@
       <c r="D13" s="15">
         <v>1</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="39">
         <v>407</v>
       </c>
       <c r="F13" s="16">
@@ -18324,7 +18324,7 @@
       <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="39">
         <v>368</v>
       </c>
       <c r="F14" s="16">
@@ -18346,7 +18346,7 @@
       <c r="D15" s="15">
         <v>1</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="39">
         <v>403.2</v>
       </c>
       <c r="F15" s="16">
@@ -18368,7 +18368,7 @@
       <c r="D16" s="15">
         <v>1</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="39">
         <v>413.2</v>
       </c>
       <c r="F16" s="16">
@@ -18390,7 +18390,7 @@
       <c r="D17" s="15">
         <v>1</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="39">
         <v>535.1</v>
       </c>
       <c r="F17" s="16">
@@ -18412,7 +18412,7 @@
       <c r="D18" s="15">
         <v>2</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="39">
         <v>529.6</v>
       </c>
       <c r="F18" s="16">
@@ -18434,7 +18434,7 @@
       <c r="D19" s="15">
         <v>1</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="39">
         <v>540</v>
       </c>
       <c r="F19" s="16">
@@ -18456,7 +18456,7 @@
       <c r="D20" s="15">
         <v>1</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="39">
         <v>543.8</v>
       </c>
       <c r="F20" s="16">
@@ -18478,7 +18478,7 @@
       <c r="D21" s="15">
         <v>2</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="39">
         <v>538</v>
       </c>
       <c r="F21" s="16">
@@ -18522,7 +18522,7 @@
       <c r="D23" s="15">
         <v>1</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="39">
         <v>544</v>
       </c>
       <c r="F23" s="16">
@@ -18544,7 +18544,7 @@
       <c r="D24" s="15">
         <v>1</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="39">
         <v>530</v>
       </c>
       <c r="F24" s="16">
@@ -19912,19 +19912,19 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <v>2</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>27824</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="36">
         <f>E5</f>
         <v>27824</v>
       </c>
@@ -19934,11 +19934,11 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7" ht="21.95" customHeight="1" spans="1:7">
@@ -20333,7 +20333,7 @@
       <c r="D5" s="15">
         <v>84</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="34">
         <v>2.3</v>
       </c>
       <c r="F5" s="18">

--- a/入库日报表.xlsx
+++ b/入库日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" firstSheet="27" activeTab="30"/>
+    <workbookView windowWidth="30048" windowHeight="13740" firstSheet="27" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="浮空栈道1.7" sheetId="4" r:id="rId1"/>
@@ -37,9 +37,9 @@
     <sheet name="广东华丰1.29" sheetId="35" r:id="rId28"/>
     <sheet name="大东海1.30" sheetId="27" r:id="rId29"/>
     <sheet name="广东华丰1.31" sheetId="32" r:id="rId30"/>
-    <sheet name="模板 (13)" sheetId="33" r:id="rId31"/>
-    <sheet name="模板 (2)" sheetId="36" r:id="rId32"/>
-    <sheet name="模板 (3)" sheetId="37" r:id="rId33"/>
+    <sheet name="大东海2.1" sheetId="33" r:id="rId31"/>
+    <sheet name="大东海2.2" sheetId="36" r:id="rId32"/>
+    <sheet name="大东海2.3" sheetId="37" r:id="rId33"/>
     <sheet name="模板 (4)" sheetId="38" r:id="rId34"/>
     <sheet name="模板 (5)" sheetId="39" r:id="rId35"/>
     <sheet name="模板 (6)" sheetId="40" r:id="rId36"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="458">
   <si>
     <t>正建股份-钢结构生产车间成品构件入库日报表</t>
   </si>
@@ -1484,16 +1484,31 @@
   <si>
     <t>ZC10</t>
   </si>
+  <si>
+    <t>1DCL3</t>
+  </si>
+  <si>
+    <t>WI2000-14-35*700-35*500</t>
+  </si>
+  <si>
+    <t>3GZ29</t>
+  </si>
+  <si>
+    <t>3GZ27</t>
+  </si>
+  <si>
+    <t>3GZ15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -1579,75 +1594,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1658,17 +1609,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1683,7 +1633,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1698,9 +1670,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1720,8 +1714,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1735,72 +1798,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1817,6 +1818,20 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1836,31 +1851,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399761955626087"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399792474135563"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1878,19 +2025,367 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799798577837458"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399761955626087"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1902,91 +2397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799768059327982"/>
+        <fgColor theme="8" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,199 +2409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799768059327982"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2202,169 +2427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
+        <fgColor theme="5" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2376,13 +2439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="6" tint="0.399761955626087"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2394,61 +2451,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399761955626087"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399822992645039"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2538,6 +2553,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2560,15 +2586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2584,6 +2601,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2595,44 +2621,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399792474135563"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399945066682943"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2656,7 +2644,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399822992645039"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2665,7 +2662,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.399914548173467"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2675,6 +2681,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399761955626087"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399792474135563"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399822992645039"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2692,15 +2716,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399914548173467"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.399853511154515"/>
       </bottom>
       <diagonal/>
@@ -2713,1273 +2728,1273 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="51" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="51" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="51" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="51" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4059,10 +4074,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4117,14 +4132,14 @@
   <cellStyles count="425">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="3"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="输出 3" xfId="7"/>
-    <cellStyle name="链接单元格 3 2" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="9"/>
+    <cellStyle name="链接单元格 3 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="输出 3" xfId="5"/>
+    <cellStyle name="输入" xfId="6" builtinId="20"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="7"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="9"/>
     <cellStyle name="千位分隔[0]" xfId="10" builtinId="6"/>
     <cellStyle name="60% - 强调文字颜色 1 3 5" xfId="11"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
@@ -4138,19 +4153,19 @@
     <cellStyle name="百分比" xfId="20" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9"/>
-    <cellStyle name="注释" xfId="23" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="25"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="26"/>
-    <cellStyle name="警告文本" xfId="27" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="28"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="解释性文本 2 2" xfId="30"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="31"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="23"/>
+    <cellStyle name="注释" xfId="24" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="26"/>
+    <cellStyle name="标题 4" xfId="27" builtinId="19"/>
+    <cellStyle name="解释性文本 2 2" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="29"/>
+    <cellStyle name="警告文本" xfId="30" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="31"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="33"/>
+    <cellStyle name="强调文字颜色 1 2 3" xfId="33"/>
     <cellStyle name="常规 5 2" xfId="34"/>
-    <cellStyle name="强调文字颜色 1 2 3" xfId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="35"/>
     <cellStyle name="标题" xfId="36" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="37" builtinId="53"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="38"/>
@@ -4164,28 +4179,28 @@
     <cellStyle name="输出" xfId="46" builtinId="21"/>
     <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="47"/>
     <cellStyle name="计算" xfId="48" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="49"/>
-    <cellStyle name="计算 3 2" xfId="50"/>
+    <cellStyle name="计算 3 2" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
     <cellStyle name="检查单元格" xfId="51" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="52" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="53" builtinId="33"/>
     <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="54"/>
     <cellStyle name="链接单元格" xfId="55" builtinId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="56"/>
-    <cellStyle name="强调文字颜色 3 2 4" xfId="57"/>
+    <cellStyle name="强调文字颜色 3 2 4" xfId="56"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="57"/>
     <cellStyle name="汇总" xfId="58" builtinId="25"/>
     <cellStyle name="差 3 4" xfId="59"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="61"/>
-    <cellStyle name="输出 3 3" xfId="62"/>
+    <cellStyle name="输出 3 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="检查单元格 3 2" xfId="65"/>
     <cellStyle name="强调文字颜色 1" xfId="66" builtinId="29"/>
     <cellStyle name="链接单元格 3" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="68" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="69"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="70"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="69"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="70"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="71" builtinId="31"/>
     <cellStyle name="输出 2" xfId="72"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="73" builtinId="34"/>
@@ -4200,83 +4215,83 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="85"/>
-    <cellStyle name="适中 2" xfId="86"/>
+    <cellStyle name="适中 2" xfId="85"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="86"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="87" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="88" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 1 2 7" xfId="89"/>
     <cellStyle name="20% - 强调文字颜色 1 3 7" xfId="90"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="91"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="93"/>
-    <cellStyle name="链接单元格 3 3" xfId="94"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="92"/>
+    <cellStyle name="链接单元格 3 3" xfId="93"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="94"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="97"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="97"/>
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
     <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="99"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="101"/>
+    <cellStyle name="计算 2 2" xfId="101"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="102"/>
-    <cellStyle name="计算 2 2" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="103"/>
+    <cellStyle name="计算 2 3" xfId="104"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="105"/>
-    <cellStyle name="计算 2 3" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="106"/>
     <cellStyle name="20% - 强调文字颜色 1 3 6" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="108"/>
+    <cellStyle name="输出 2 2" xfId="108"/>
     <cellStyle name="20% - 强调文字颜色 3 2 7" xfId="109"/>
-    <cellStyle name="输出 2 2" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="114"/>
     <cellStyle name="20% - 强调文字颜色 2 2 7" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="116"/>
-    <cellStyle name="输出 2 3" xfId="117"/>
+    <cellStyle name="输出 2 3" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="117"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="120"/>
-    <cellStyle name="常规 2 2 2" xfId="121"/>
+    <cellStyle name="常规 2 2 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="121"/>
     <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="122"/>
     <cellStyle name="20% - 强调文字颜色 2 3 7" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="124"/>
+    <cellStyle name="输出 3 2" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 3 3 7" xfId="125"/>
-    <cellStyle name="输出 3 2" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="132"/>
-    <cellStyle name="适中 3" xfId="133"/>
+    <cellStyle name="适中 3" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="133"/>
     <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="134"/>
     <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="135"/>
     <cellStyle name="20% - 强调文字颜色 3 3 6" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="137"/>
+    <cellStyle name="常规 3" xfId="137"/>
     <cellStyle name="60% - 强调文字颜色 1 2 7" xfId="138"/>
-    <cellStyle name="常规 3" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="140"/>
-    <cellStyle name="常规 3 2" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="139"/>
+    <cellStyle name="常规 3 2" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="141"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="142"/>
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="144"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="146"/>
-    <cellStyle name="强调文字颜色 5 3" xfId="147"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="145"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 4 2 7" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="149"/>
-    <cellStyle name="常规 4" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="151"/>
-    <cellStyle name="常规 4 2" xfId="152"/>
+    <cellStyle name="常规 4" xfId="149"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="150"/>
+    <cellStyle name="常规 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="153"/>
     <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="155"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="157"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="158"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="156"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 3 7" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="160"/>
-    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="161"/>
+    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="160"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="161"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="164"/>
@@ -4285,177 +4300,177 @@
     <cellStyle name="20% - 强调文字颜色 5 2 7" xfId="167"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="170"/>
+    <cellStyle name="解释性文本 2 3" xfId="170"/>
     <cellStyle name="标题 5" xfId="171"/>
-    <cellStyle name="解释性文本 2 3" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="173"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="174"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="172"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="175"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 6 2 7" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="181"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="183"/>
-    <cellStyle name="好 2 5" xfId="184"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="182"/>
+    <cellStyle name="好 2 5" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="184"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="186"/>
-    <cellStyle name="注释 2 2" xfId="187"/>
+    <cellStyle name="注释 2 2" xfId="186"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="187"/>
     <cellStyle name="20% - 强调文字颜色 6 3 6" xfId="188"/>
     <cellStyle name="20% - 强调文字颜色 6 3 7" xfId="189"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="190"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="191"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="192"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="191"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="192"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="194"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="195"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="196"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="195"/>
+    <cellStyle name="解释性文本 3 3" xfId="196"/>
     <cellStyle name="60% - 强调文字颜色 3 2 7" xfId="197"/>
-    <cellStyle name="解释性文本 3 3" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="199"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="201"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="202"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="198"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="200"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="203"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="204"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="205"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="206"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="204"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="205"/>
+    <cellStyle name="检查单元格 2" xfId="206"/>
     <cellStyle name="60% - 强调文字颜色 5 2 7" xfId="207"/>
-    <cellStyle name="检查单元格 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="209"/>
-    <cellStyle name="检查单元格 3" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="211"/>
-    <cellStyle name="计算 3 3" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="213"/>
-    <cellStyle name="好 2 3" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="208"/>
+    <cellStyle name="检查单元格 3" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="210"/>
+    <cellStyle name="计算 3 3" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="212"/>
+    <cellStyle name="好 2 3" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="214"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="215"/>
     <cellStyle name="60% - 强调文字颜色 4 3" xfId="216"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="217"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="219"/>
-    <cellStyle name="好 2 4" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="221"/>
+    <cellStyle name="好 2 4" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="220"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="221"/>
     <cellStyle name="60% - 强调文字颜色 5 3" xfId="222"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="225"/>
+    <cellStyle name="适中 2 2" xfId="225"/>
     <cellStyle name="好 3 3" xfId="226"/>
-    <cellStyle name="适中 2 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="230"/>
-    <cellStyle name="好 3 4" xfId="231"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="232"/>
-    <cellStyle name="适中 2 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="234"/>
-    <cellStyle name="解释性文本 3" xfId="235"/>
+    <cellStyle name="适中 2 3" xfId="230"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="231"/>
+    <cellStyle name="好 3 4" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="233"/>
+    <cellStyle name="解释性文本 3" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="235"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="236"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="237"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="238"/>
     <cellStyle name="60% - 强调文字颜色 1 2 3" xfId="239"/>
     <cellStyle name="60% - 强调文字颜色 1 2 4" xfId="240"/>
     <cellStyle name="60% - 强调文字颜色 1 2 5" xfId="241"/>
-    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="242"/>
-    <cellStyle name="常规 2" xfId="243"/>
+    <cellStyle name="常规 2" xfId="242"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="243"/>
     <cellStyle name="60% - 强调文字颜色 1 3" xfId="244"/>
     <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="245"/>
     <cellStyle name="60% - 强调文字颜色 1 3 3" xfId="246"/>
     <cellStyle name="60% - 强调文字颜色 1 3 4" xfId="247"/>
     <cellStyle name="60% - 强调文字颜色 1 3 6" xfId="248"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="249"/>
-    <cellStyle name="常规 5" xfId="250"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="251"/>
-    <cellStyle name="强调文字颜色 1 2 4" xfId="252"/>
+    <cellStyle name="常规 5" xfId="249"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="250"/>
+    <cellStyle name="强调文字颜色 1 2 4" xfId="251"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="252"/>
     <cellStyle name="60% - 强调文字颜色 2 2 4" xfId="253"/>
     <cellStyle name="60% - 强调文字颜色 2 2 5" xfId="254"/>
     <cellStyle name="60% - 强调文字颜色 2 2 6" xfId="255"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="256"/>
+    <cellStyle name="注释 2" xfId="256"/>
     <cellStyle name="强调文字颜色 1 3 3" xfId="257"/>
-    <cellStyle name="注释 2" xfId="258"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="259"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="258"/>
+    <cellStyle name="注释 3" xfId="259"/>
     <cellStyle name="强调文字颜色 1 3 4" xfId="260"/>
-    <cellStyle name="注释 3" xfId="261"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="261"/>
     <cellStyle name="60% - 强调文字颜色 2 3 4" xfId="262"/>
     <cellStyle name="60% - 强调文字颜色 2 3 6" xfId="263"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="264"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="265"/>
-    <cellStyle name="强调文字颜色 2 2 3" xfId="266"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="267"/>
-    <cellStyle name="强调文字颜色 2 2 4" xfId="268"/>
+    <cellStyle name="强调文字颜色 2 2 3" xfId="265"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="266"/>
+    <cellStyle name="强调文字颜色 2 2 4" xfId="267"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="268"/>
     <cellStyle name="60% - 强调文字颜色 3 2 4" xfId="269"/>
     <cellStyle name="60% - 强调文字颜色 3 2 5" xfId="270"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="271"/>
-    <cellStyle name="解释性文本 3 2" xfId="272"/>
+    <cellStyle name="解释性文本 3 2" xfId="271"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="272"/>
     <cellStyle name="60% - 强调文字颜色 3 3" xfId="273"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="274"/>
-    <cellStyle name="强调文字颜色 2 3 3" xfId="275"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="276"/>
-    <cellStyle name="强调文字颜色 2 3 4" xfId="277"/>
+    <cellStyle name="强调文字颜色 2 3 3" xfId="274"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="275"/>
+    <cellStyle name="强调文字颜色 2 3 4" xfId="276"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="277"/>
     <cellStyle name="60% - 强调文字颜色 3 3 4" xfId="278"/>
     <cellStyle name="60% - 强调文字颜色 3 3 5" xfId="279"/>
     <cellStyle name="60% - 强调文字颜色 3 3 6" xfId="280"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="281"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="282"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="283"/>
-    <cellStyle name="好 3 5" xfId="284"/>
-    <cellStyle name="强调文字颜色 3 2 3" xfId="285"/>
-    <cellStyle name="适中 2 4" xfId="286"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="287"/>
-    <cellStyle name="注释 3 2" xfId="288"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="281"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="282"/>
+    <cellStyle name="适中 2 4" xfId="283"/>
+    <cellStyle name="强调文字颜色 3 2 3" xfId="284"/>
+    <cellStyle name="好 3 5" xfId="285"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="286"/>
+    <cellStyle name="注释 3 2" xfId="287"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="288"/>
     <cellStyle name="60% - 强调文字颜色 4 2 5" xfId="289"/>
     <cellStyle name="60% - 强调文字颜色 4 2 6" xfId="290"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="291"/>
+    <cellStyle name="适中 3 4" xfId="291"/>
     <cellStyle name="强调文字颜色 3 3 3" xfId="292"/>
-    <cellStyle name="适中 3 4" xfId="293"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="294"/>
-    <cellStyle name="强调文字颜色 3 3 4" xfId="295"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="293"/>
+    <cellStyle name="强调文字颜色 3 3 4" xfId="294"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="295"/>
     <cellStyle name="60% - 强调文字颜色 4 3 4" xfId="296"/>
     <cellStyle name="60% - 强调文字颜色 4 3 5" xfId="297"/>
     <cellStyle name="60% - 强调文字颜色 4 3 6" xfId="298"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="299"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="300"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="301"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="299"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="300"/>
+    <cellStyle name="强调文字颜色 4 2 3" xfId="301"/>
     <cellStyle name="标题 3 2 6" xfId="302"/>
-    <cellStyle name="强调文字颜色 4 2 3" xfId="303"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="304"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="303"/>
+    <cellStyle name="强调文字颜色 4 2 4" xfId="304"/>
     <cellStyle name="标题 3 2 7" xfId="305"/>
-    <cellStyle name="强调文字颜色 4 2 4" xfId="306"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="306"/>
     <cellStyle name="60% - 强调文字颜色 5 2 4" xfId="307"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="308"/>
-    <cellStyle name="标题 4 2" xfId="309"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="310"/>
+    <cellStyle name="标题 4 2" xfId="308"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="309"/>
+    <cellStyle name="汇总 2 2" xfId="310"/>
     <cellStyle name="标题 4 3" xfId="311"/>
-    <cellStyle name="汇总 2 2" xfId="312"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="313"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="312"/>
+    <cellStyle name="强调文字颜色 4 3 3" xfId="313"/>
     <cellStyle name="标题 3 3 6" xfId="314"/>
-    <cellStyle name="强调文字颜色 4 3 3" xfId="315"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="316"/>
-    <cellStyle name="标题 3 3 7" xfId="317"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="318"/>
-    <cellStyle name="强调文字颜色 4 3 4" xfId="319"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="320"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="321"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="322"/>
-    <cellStyle name="标题 5 2" xfId="323"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="324"/>
-    <cellStyle name="汇总 3 2" xfId="325"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="315"/>
+    <cellStyle name="强调文字颜色 4 3 4" xfId="316"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="317"/>
+    <cellStyle name="标题 3 3 7" xfId="318"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="319"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="320"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="321"/>
+    <cellStyle name="标题 5 2" xfId="322"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="323"/>
+    <cellStyle name="汇总 3 2" xfId="324"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="325"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="326"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="327"/>
-    <cellStyle name="强调文字颜色 5 2 3" xfId="328"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="329"/>
-    <cellStyle name="强调文字颜色 5 2 4" xfId="330"/>
+    <cellStyle name="强调文字颜色 5 2 3" xfId="327"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="328"/>
+    <cellStyle name="强调文字颜色 5 2 4" xfId="329"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="330"/>
     <cellStyle name="60% - 强调文字颜色 6 3" xfId="331"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="332"/>
-    <cellStyle name="强调文字颜色 5 3 4" xfId="333"/>
+    <cellStyle name="强调文字颜色 5 3 4" xfId="332"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="333"/>
     <cellStyle name="60% - 强调文字颜色 6 3 4" xfId="334"/>
     <cellStyle name="60% - 强调文字颜色 6 3 5" xfId="335"/>
     <cellStyle name="标题 1 2" xfId="336"/>
     <cellStyle name="标题 1 2 2" xfId="337"/>
     <cellStyle name="标题 1 3" xfId="338"/>
-    <cellStyle name="标题 1 3 2" xfId="339"/>
-    <cellStyle name="汇总 3" xfId="340"/>
+    <cellStyle name="汇总 3" xfId="339"/>
+    <cellStyle name="标题 1 3 2" xfId="340"/>
     <cellStyle name="标题 2 2" xfId="341"/>
     <cellStyle name="标题 2 2 2" xfId="342"/>
     <cellStyle name="标题 2 3" xfId="343"/>
@@ -4464,18 +4479,18 @@
     <cellStyle name="标题 3 2 2" xfId="346"/>
     <cellStyle name="标题 3 2 3" xfId="347"/>
     <cellStyle name="标题 3 2 4" xfId="348"/>
-    <cellStyle name="标题 3 2 5" xfId="349"/>
-    <cellStyle name="强调文字颜色 4 2 2" xfId="350"/>
+    <cellStyle name="强调文字颜色 4 2 2" xfId="349"/>
+    <cellStyle name="标题 3 2 5" xfId="350"/>
     <cellStyle name="标题 3 3" xfId="351"/>
     <cellStyle name="标题 3 3 2" xfId="352"/>
     <cellStyle name="标题 3 3 3" xfId="353"/>
     <cellStyle name="标题 3 3 4" xfId="354"/>
-    <cellStyle name="标题 3 3 5" xfId="355"/>
-    <cellStyle name="强调文字颜色 4 3 2" xfId="356"/>
+    <cellStyle name="强调文字颜色 4 3 2" xfId="355"/>
+    <cellStyle name="标题 3 3 5" xfId="356"/>
     <cellStyle name="标题 4 2 2" xfId="357"/>
     <cellStyle name="标题 4 3 2" xfId="358"/>
-    <cellStyle name="标题 6" xfId="359"/>
-    <cellStyle name="解释性文本 2 4" xfId="360"/>
+    <cellStyle name="解释性文本 2 4" xfId="359"/>
+    <cellStyle name="标题 6" xfId="360"/>
     <cellStyle name="标题 6 2" xfId="361"/>
     <cellStyle name="差 2" xfId="362"/>
     <cellStyle name="差 2 2" xfId="363"/>
@@ -4487,11 +4502,11 @@
     <cellStyle name="差 3 3" xfId="369"/>
     <cellStyle name="差 3 5" xfId="370"/>
     <cellStyle name="常规 2 2" xfId="371"/>
-    <cellStyle name="常规 2 3" xfId="372"/>
-    <cellStyle name="输入 3 2" xfId="373"/>
+    <cellStyle name="输入 3 2" xfId="372"/>
+    <cellStyle name="常规 2 3" xfId="373"/>
     <cellStyle name="常规 2 3 2" xfId="374"/>
-    <cellStyle name="常规 2 4" xfId="375"/>
-    <cellStyle name="输入 3 3" xfId="376"/>
+    <cellStyle name="输入 3 3" xfId="375"/>
+    <cellStyle name="常规 2 4" xfId="376"/>
     <cellStyle name="常规 7" xfId="377"/>
     <cellStyle name="好 2" xfId="378"/>
     <cellStyle name="好 2 2" xfId="379"/>
@@ -4517,16 +4532,16 @@
     <cellStyle name="强调文字颜色 2 2" xfId="399"/>
     <cellStyle name="强调文字颜色 2 2 2" xfId="400"/>
     <cellStyle name="强调文字颜色 2 3" xfId="401"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="402"/>
-    <cellStyle name="输入 2 4" xfId="403"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="404"/>
-    <cellStyle name="输入 2 5" xfId="405"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="406"/>
-    <cellStyle name="适中 3 3" xfId="407"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="408"/>
-    <cellStyle name="输入 3 4" xfId="409"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="410"/>
-    <cellStyle name="输入 3 5" xfId="411"/>
+    <cellStyle name="输入 2 4" xfId="402"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="403"/>
+    <cellStyle name="输入 2 5" xfId="404"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="405"/>
+    <cellStyle name="适中 3 3" xfId="406"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="407"/>
+    <cellStyle name="输入 3 4" xfId="408"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="409"/>
+    <cellStyle name="输入 3 5" xfId="410"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="411"/>
     <cellStyle name="强调文字颜色 5 2 2" xfId="412"/>
     <cellStyle name="强调文字颜色 5 3 2" xfId="413"/>
     <cellStyle name="强调文字颜色 6 2 2" xfId="414"/>
@@ -17038,7 +17053,7 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>401</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -17047,7 +17062,7 @@
       <c r="D5" s="16">
         <v>3</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="26">
         <v>1239.6</v>
       </c>
       <c r="F5" s="17">
@@ -17060,7 +17075,7 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>402</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -17069,7 +17084,7 @@
       <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="26">
         <v>1253.9</v>
       </c>
       <c r="F6" s="17">
@@ -17082,7 +17097,7 @@
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -17091,7 +17106,7 @@
       <c r="D7" s="16">
         <v>3</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="26">
         <v>1368.7</v>
       </c>
       <c r="F7" s="17">
@@ -17104,7 +17119,7 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>404</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -17113,7 +17128,7 @@
       <c r="D8" s="26">
         <v>1</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="26">
         <v>514.8</v>
       </c>
       <c r="F8" s="17">
@@ -17126,7 +17141,7 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>405</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -17135,7 +17150,7 @@
       <c r="D9" s="26">
         <v>1</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="26">
         <v>630.1</v>
       </c>
       <c r="F9" s="17">
@@ -17148,7 +17163,7 @@
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>406</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -17157,7 +17172,7 @@
       <c r="D10" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="26">
         <v>699.2</v>
       </c>
       <c r="F10" s="17">
@@ -17170,7 +17185,7 @@
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>407</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -17179,7 +17194,7 @@
       <c r="D11" s="26">
         <v>1</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="26">
         <v>752.4</v>
       </c>
       <c r="F11" s="17">
@@ -17192,7 +17207,7 @@
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="26" t="s">
         <v>408</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -17201,7 +17216,7 @@
       <c r="D12" s="26">
         <v>1</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="26">
         <v>866.2</v>
       </c>
       <c r="F12" s="17">
@@ -17214,7 +17229,7 @@
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>409</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -17223,7 +17238,7 @@
       <c r="D13" s="16">
         <v>1</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="26">
         <v>850.5</v>
       </c>
       <c r="F13" s="17">
@@ -17236,7 +17251,7 @@
       <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>134</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -17245,7 +17260,7 @@
       <c r="D14" s="16">
         <v>4</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="26">
         <v>1092.1</v>
       </c>
       <c r="F14" s="17">
@@ -17258,7 +17273,7 @@
       <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>411</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -17267,7 +17282,7 @@
       <c r="D15" s="16">
         <v>1</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="26">
         <v>1096.8</v>
       </c>
       <c r="F15" s="17">
@@ -17280,7 +17295,7 @@
       <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>412</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -17289,7 +17304,7 @@
       <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="26">
         <v>1096.8</v>
       </c>
       <c r="F16" s="17">
@@ -17302,7 +17317,7 @@
       <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>413</v>
       </c>
       <c r="C17" s="26" t="s">
@@ -17311,7 +17326,7 @@
       <c r="D17" s="16">
         <v>1</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="26">
         <v>1097.4</v>
       </c>
       <c r="F17" s="17">
@@ -17324,7 +17339,7 @@
       <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>414</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -17333,7 +17348,7 @@
       <c r="D18" s="16">
         <v>1</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="26">
         <v>1095.3</v>
       </c>
       <c r="F18" s="17">
@@ -17346,7 +17361,7 @@
       <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>226</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -17355,7 +17370,7 @@
       <c r="D19" s="16">
         <v>4</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="26">
         <v>1092.1</v>
       </c>
       <c r="F19" s="17">
@@ -17368,7 +17383,7 @@
       <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>415</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -17377,7 +17392,7 @@
       <c r="D20" s="16">
         <v>1</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="26">
         <v>1096.8</v>
       </c>
       <c r="F20" s="17">
@@ -17390,7 +17405,7 @@
       <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>416</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -17399,7 +17414,7 @@
       <c r="D21" s="16">
         <v>1</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="26">
         <v>1096.8</v>
       </c>
       <c r="F21" s="17">
@@ -17412,7 +17427,7 @@
       <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="26" t="s">
         <v>417</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -17421,7 +17436,7 @@
       <c r="D22" s="16">
         <v>1</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="26">
         <v>1097.4</v>
       </c>
       <c r="F22" s="17">
@@ -17434,7 +17449,7 @@
       <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="26" t="s">
         <v>418</v>
       </c>
       <c r="C23" s="26" t="s">
@@ -17443,7 +17458,7 @@
       <c r="D23" s="16">
         <v>1</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="26">
         <v>1095.3</v>
       </c>
       <c r="F23" s="17">
@@ -18247,8 +18262,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -18278,7 +18293,9 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>389</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
@@ -18322,11 +18339,22 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>8795.8</v>
+      </c>
+      <c r="F5" s="14">
+        <f>E5*D5</f>
+        <v>17591.6</v>
+      </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" ht="21.95" customHeight="1" spans="1:7">
@@ -18603,7 +18631,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="20">
         <f>SUM(F5:F29)</f>
-        <v>0</v>
+        <v>17591.6</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -18641,7 +18669,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -18671,7 +18699,9 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>389</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
@@ -18715,11 +18745,22 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>14082.6</v>
+      </c>
+      <c r="F5" s="17">
+        <f>E5*D5</f>
+        <v>14082.6</v>
+      </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" ht="21.95" customHeight="1" spans="1:7">
@@ -18996,7 +19037,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="20">
         <f>SUM(F5:F29)</f>
-        <v>0</v>
+        <v>14082.6</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -19033,8 +19074,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -19064,7 +19105,9 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="25" t="s">
+        <v>389</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
@@ -19108,22 +19151,44 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>14203.6</v>
+      </c>
+      <c r="F5" s="17">
+        <f>E5*D5</f>
+        <v>14203.6</v>
+      </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" ht="21.95" customHeight="1" spans="1:7">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>13642.6</v>
+      </c>
+      <c r="F6" s="17">
+        <f>E6*D6</f>
+        <v>13642.6</v>
+      </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" ht="21.95" customHeight="1" spans="1:7">
@@ -19389,7 +19454,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="20">
         <f>SUM(F5:F29)</f>
-        <v>0</v>
+        <v>27846.2</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -19426,8 +19491,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
